--- a/working_files/practice_xcs.xlsx
+++ b/working_files/practice_xcs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr backupFile="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <workbookPr backupFile="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="15"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="27" r:id="rId1"/>
@@ -24,7 +24,12 @@
     <sheet name="raise3" sheetId="25" r:id="rId15"/>
     <sheet name="Vertical_1_W" sheetId="33" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -337,8 +342,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -834,6 +839,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,10 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -967,7 +972,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -982,11 +997,14 @@
         </c:strRef>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1009,7 +1027,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,11 +1039,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1060,6 +1079,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1087,10 +1107,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,11 +1125,12 @@
                   <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1135,10 +1156,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,20 +1174,30 @@
                   <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62092032"/>
-        <c:axId val="62094336"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2076452456"/>
+        <c:axId val="2076459416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62092032"/>
+        <c:axId val="2076452456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1185,18 +1216,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62094336"/>
+        <c:crossAx val="2076459416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62094336"/>
+        <c:axId val="2076459416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1216,10 +1251,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62092032"/>
+        <c:crossAx val="2076452456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1227,13 +1265,15 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000162" r="0.70000000000000162" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1241,7 +1281,17 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1255,12 +1305,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1330,6 +1382,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1353,10 +1406,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-25</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,6 +1429,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1403,10 +1457,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,11 +1475,12 @@
                   <c:v>57.5715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1451,10 +1506,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-60</c:v>
+                  <c:v>-60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-60</c:v>
+                  <c:v>-60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,20 +1524,30 @@
                   <c:v>57.5715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="128990208"/>
-        <c:axId val="129021056"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2075879704"/>
+        <c:axId val="2075885288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128990208"/>
+        <c:axId val="2075879704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1500,19 +1565,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129021056"/>
+        <c:crossAx val="2075885288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129021056"/>
+        <c:axId val="2075885288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1531,25 +1599,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128990208"/>
+        <c:crossAx val="2075879704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1557,7 +1628,17 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1571,12 +1652,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1602,7 +1685,7 @@
                   <c:v>-234.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-200</c:v>
+                  <c:v>-200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-165.5</c:v>
@@ -1611,28 +1694,28 @@
                   <c:v>-84.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-15.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>124</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171</c:v>
+                  <c:v>171.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>176</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>172</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,7 +1754,7 @@
                   <c:v>68.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.670000000000002</c:v>
+                  <c:v>17.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>40.67</c:v>
@@ -1682,6 +1765,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1705,22 +1789,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-222</c:v>
+                  <c:v>-222.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-178</c:v>
+                  <c:v>-178.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-72</c:v>
+                  <c:v>-72.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-28</c:v>
+                  <c:v>-28.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,6 +1836,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1779,10 +1864,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,14 +1879,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.902000000000001</c:v>
+                  <c:v>97.902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1827,10 +1913,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-150</c:v>
+                  <c:v>-150.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-150</c:v>
+                  <c:v>-150.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1842,23 +1928,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.902000000000001</c:v>
+                  <c:v>97.902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="129146880"/>
-        <c:axId val="129148800"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2076669960"/>
+        <c:axId val="2076675528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129146880"/>
+        <c:axId val="2076669960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1876,19 +1972,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129148800"/>
+        <c:crossAx val="2076675528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129148800"/>
+        <c:axId val="2076675528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1907,25 +2006,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129146880"/>
+        <c:crossAx val="2076669960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1933,7 +2035,17 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1947,12 +2059,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1978,7 +2092,7 @@
                   <c:v>-234.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-200</c:v>
+                  <c:v>-200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-165.5</c:v>
@@ -1987,28 +2101,28 @@
                   <c:v>-84.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-15.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>124</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171</c:v>
+                  <c:v>171.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>176</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>172</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>217.58</c:v>
@@ -2065,7 +2179,7 @@
                   <c:v>68.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.670000000000002</c:v>
+                  <c:v>17.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>40.67</c:v>
@@ -2074,7 +2188,7 @@
                   <c:v>63.67</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>32.17</c:v>
@@ -2083,7 +2197,7 @@
                   <c:v>44.17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>32.17</c:v>
@@ -2094,6 +2208,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2117,22 +2232,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-222</c:v>
+                  <c:v>-222.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-178</c:v>
+                  <c:v>-178.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-72</c:v>
+                  <c:v>-72.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-28</c:v>
+                  <c:v>-28.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>219.66</c:v>
@@ -2176,6 +2291,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2203,10 +2319,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>275</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>275</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,14 +2334,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.902000000000001</c:v>
+                  <c:v>97.902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2251,10 +2368,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-275</c:v>
+                  <c:v>-275.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-275</c:v>
+                  <c:v>-275.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,23 +2383,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.902000000000001</c:v>
+                  <c:v>97.902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="135148288"/>
-        <c:axId val="135150208"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2028326008"/>
+        <c:axId val="2028331592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135148288"/>
+        <c:axId val="2028326008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2300,19 +2427,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135150208"/>
+        <c:crossAx val="2028331592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135150208"/>
+        <c:axId val="2028331592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2331,25 +2461,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135148288"/>
+        <c:crossAx val="2028326008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2357,7 +2490,17 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2371,12 +2514,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2399,13 +2544,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,17 +2562,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2451,7 +2597,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2463,11 +2609,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2495,10 +2642,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,11 +2660,12 @@
                   <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2543,10 +2691,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,20 +2709,30 @@
                   <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="135010176"/>
-        <c:axId val="135024640"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2075949064"/>
+        <c:axId val="2075954648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135010176"/>
+        <c:axId val="2075949064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2592,19 +2750,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135024640"/>
+        <c:crossAx val="2075954648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135024640"/>
+        <c:axId val="2075954648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2623,25 +2784,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135010176"/>
+        <c:crossAx val="2075949064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2649,7 +2813,17 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2663,12 +2837,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2691,13 +2867,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2709,17 +2885,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2743,7 +2920,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2755,11 +2932,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2787,10 +2965,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,11 +2983,12 @@
                   <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2835,10 +3014,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2853,20 +3032,30 @@
                   <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="135244416"/>
-        <c:axId val="135258880"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2076750328"/>
+        <c:axId val="2076755912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135244416"/>
+        <c:axId val="2076750328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2884,19 +3073,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135258880"/>
+        <c:crossAx val="2076755912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135258880"/>
+        <c:axId val="2076755912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2915,25 +3107,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135244416"/>
+        <c:crossAx val="2076750328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2941,7 +3136,17 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2955,12 +3160,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2983,13 +3190,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,17 +3208,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3035,7 +3243,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3047,11 +3255,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3079,10 +3288,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3097,11 +3306,12 @@
                   <c:v>36.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3127,10 +3337,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3145,20 +3355,30 @@
                   <c:v>36.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="135286144"/>
-        <c:axId val="135308800"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2076006680"/>
+        <c:axId val="2076012264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135286144"/>
+        <c:axId val="2076006680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3176,19 +3396,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135308800"/>
+        <c:crossAx val="2076012264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135308800"/>
+        <c:axId val="2076012264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3207,25 +3430,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135286144"/>
+        <c:crossAx val="2076006680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3233,7 +3459,17 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3248,11 +3484,14 @@
         </c:strRef>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3275,13 +3514,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,6 +3543,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3327,7 +3567,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3339,11 +3579,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3371,10 +3612,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3389,11 +3630,12 @@
                   <c:v>36.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3419,10 +3661,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-30</c:v>
+                  <c:v>-30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-30</c:v>
+                  <c:v>-30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3437,20 +3679,30 @@
                   <c:v>36.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="145473920"/>
-        <c:axId val="145475840"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2076791960"/>
+        <c:axId val="2076797544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145473920"/>
+        <c:axId val="2076791960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3469,18 +3721,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145475840"/>
+        <c:crossAx val="2076797544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145475840"/>
+        <c:axId val="2076797544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3500,10 +3756,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145473920"/>
+        <c:crossAx val="2076791960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3511,13 +3770,15 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000162" r="0.70000000000000162" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3525,7 +3786,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3540,11 +3811,14 @@
         </c:strRef>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3567,7 +3841,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3579,11 +3853,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3607,7 +3882,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3619,11 +3894,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3651,10 +3927,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3669,11 +3945,12 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3699,10 +3976,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3717,20 +3994,30 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62584704"/>
-        <c:axId val="62590976"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2075627992"/>
+        <c:axId val="2075633576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62584704"/>
+        <c:axId val="2075627992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3749,18 +4036,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62590976"/>
+        <c:crossAx val="2075633576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62590976"/>
+        <c:axId val="2075633576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3780,10 +4071,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62584704"/>
+        <c:crossAx val="2075627992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3791,13 +4085,15 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3805,7 +4101,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3820,11 +4126,14 @@
         </c:strRef>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3847,31 +4156,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-25</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20</c:v>
+                  <c:v>-20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15</c:v>
+                  <c:v>-15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3883,35 +4192,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3935,13 +4245,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-23</c:v>
+                  <c:v>-23.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3953,17 +4263,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3991,10 +4302,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4009,11 +4320,12 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4039,10 +4351,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-45</c:v>
+                  <c:v>-45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-45</c:v>
+                  <c:v>-45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4057,20 +4369,30 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62655104"/>
-        <c:axId val="62661376"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2075686104"/>
+        <c:axId val="2075691688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62655104"/>
+        <c:axId val="2075686104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4089,18 +4411,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62661376"/>
+        <c:crossAx val="2075691688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62661376"/>
+        <c:axId val="2075691688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4120,10 +4446,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62655104"/>
+        <c:crossAx val="2075686104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4131,13 +4460,15 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4145,7 +4476,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4159,12 +4500,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4187,31 +4530,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-25</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20</c:v>
+                  <c:v>-20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15</c:v>
+                  <c:v>-15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,35 +4566,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4275,13 +4619,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-23</c:v>
+                  <c:v>-23.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4293,17 +4637,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4331,10 +4676,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4346,14 +4691,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>37.800000000000004</c:v>
+                  <c:v>37.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4379,10 +4725,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-45</c:v>
+                  <c:v>-45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-45</c:v>
+                  <c:v>-45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4394,23 +4740,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>37.800000000000004</c:v>
+                  <c:v>37.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62737408"/>
-        <c:axId val="62760064"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2075743096"/>
+        <c:axId val="2075748680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62737408"/>
+        <c:axId val="2075743096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4428,19 +4784,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62760064"/>
+        <c:crossAx val="2075748680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62760064"/>
+        <c:axId val="2075748680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4459,25 +4818,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62737408"/>
+        <c:crossAx val="2075743096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4485,7 +4847,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4499,12 +4871,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4545,13 +4919,13 @@
                   <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4569,7 +4943,7 @@
                   <c:v>32.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44.17</c:v>
@@ -4578,20 +4952,21 @@
                   <c:v>32.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4621,7 +4996,7 @@
                   <c:v>4.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4639,11 +5014,12 @@
                   <c:v>55.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4671,10 +5047,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4686,14 +5062,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>57.9285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4719,10 +5096,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4734,23 +5111,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>57.9285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="97074176"/>
-        <c:axId val="97084544"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2076493512"/>
+        <c:axId val="2076499096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97074176"/>
+        <c:axId val="2076493512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4768,19 +5155,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97084544"/>
+        <c:crossAx val="2076499096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97084544"/>
+        <c:axId val="2076499096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4799,25 +5189,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97074176"/>
+        <c:crossAx val="2076493512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4825,7 +5218,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4839,12 +5242,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4885,13 +5290,13 @@
                   <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.670000000000002</c:v>
+                  <c:v>18.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.329999999999998</c:v>
+                  <c:v>19.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4909,7 +5314,7 @@
                   <c:v>32.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44.17</c:v>
@@ -4918,20 +5323,21 @@
                   <c:v>32.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4978,6 +5384,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5005,10 +5412,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5020,14 +5427,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>57.9285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5053,10 +5461,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5068,23 +5476,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>57.9285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="126988288"/>
-        <c:axId val="126990208"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2076508808"/>
+        <c:axId val="2076514456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126988288"/>
+        <c:axId val="2076508808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5102,19 +5520,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126990208"/>
+        <c:crossAx val="2076514456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126990208"/>
+        <c:axId val="2076514456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5133,25 +5554,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126988288"/>
+        <c:crossAx val="2076508808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5159,7 +5583,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5173,12 +5607,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5237,13 +5673,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45.08</c:v>
@@ -5266,6 +5702,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5289,10 +5726,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-11</c:v>
+                  <c:v>-11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8</c:v>
+                  <c:v>-8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5312,6 +5749,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5354,14 +5792,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>55.292999999999999</c:v>
+                  <c:v>55.293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5402,23 +5841,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>55.292999999999999</c:v>
+                  <c:v>55.293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="128762624"/>
-        <c:axId val="128764544"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2076590152"/>
+        <c:axId val="2076595736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128762624"/>
+        <c:axId val="2076590152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5436,19 +5885,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128764544"/>
+        <c:crossAx val="2076595736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128764544"/>
+        <c:axId val="2076595736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5467,25 +5919,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128762624"/>
+        <c:crossAx val="2076590152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5493,7 +5948,17 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5507,12 +5972,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5544,7 +6011,7 @@
                   <c:v>-33.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-18.579999999999998</c:v>
+                  <c:v>-18.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-15.33</c:v>
@@ -5556,7 +6023,7 @@
                   <c:v>-11.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11</c:v>
+                  <c:v>-11.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-10.67</c:v>
@@ -5571,35 +6038,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5646,6 +6114,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5688,14 +6157,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72.712500000000006</c:v>
+                  <c:v>72.7125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5736,23 +6206,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72.712500000000006</c:v>
+                  <c:v>72.7125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="128923136"/>
-        <c:axId val="128925056"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2075819720"/>
+        <c:axId val="2075825304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128923136"/>
+        <c:axId val="2075819720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5770,19 +6250,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128925056"/>
+        <c:crossAx val="2075825304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128925056"/>
+        <c:axId val="2075825304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5801,25 +6284,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128923136"/>
+        <c:crossAx val="2075819720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5827,7 +6313,17 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5841,12 +6337,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5872,7 +6370,7 @@
                   <c:v>-37.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-25</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-12.5</c:v>
@@ -5881,7 +6379,7 @@
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>36.5</c:v>
@@ -5896,26 +6394,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5968,6 +6467,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5995,10 +6495,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6013,11 +6513,12 @@
                   <c:v>49.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6043,10 +6544,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-60</c:v>
+                  <c:v>-60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-60</c:v>
+                  <c:v>-60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6061,20 +6562,30 @@
                   <c:v>49.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="129054976"/>
-        <c:axId val="129065344"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2076647832"/>
+        <c:axId val="2076653416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129054976"/>
+        <c:axId val="2076647832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6092,19 +6603,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129065344"/>
+        <c:crossAx val="2076653416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129065344"/>
+        <c:axId val="2076653416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6123,25 +6637,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129054976"/>
+        <c:crossAx val="2076647832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7003,29 +7520,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -7044,7 +7561,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -7061,34 +7578,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -7145,7 +7662,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="76" t="s">
@@ -7205,7 +7722,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="77"/>
@@ -7301,7 +7818,7 @@
       <c r="K13" s="80"/>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -7311,15 +7828,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -7417,33 +7934,38 @@
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="46" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="41" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="49" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="46" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="44" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="49" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="41" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="44" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="49" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7462,7 +7984,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="38"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -7479,34 +8001,34 @@
       <c r="N2" s="40"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -7563,7 +8085,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="53" t="s">
@@ -7672,7 +8194,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -7865,7 +8387,7 @@
       <c r="K13" s="50"/>
       <c r="L13" s="44"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -7875,15 +8397,15 @@
       <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="44"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="47"/>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
@@ -7990,29 +8512,29 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -8031,7 +8553,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -8048,34 +8570,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -8132,7 +8654,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="76" t="s">
@@ -8241,7 +8763,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="77" t="s">
@@ -8543,7 +9065,7 @@
       </c>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -8580,10 +9102,10 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="76" t="s">
         <v>54</v>
       </c>
@@ -8614,8 +9136,8 @@
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77" t="s">
         <v>55</v>
       </c>
@@ -8731,29 +9253,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="46" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="41" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="49" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="46" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="44" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="49" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="41" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="44" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="49" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8772,7 +9294,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="38"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -8789,34 +9311,34 @@
       <c r="N2" s="40"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -8873,7 +9395,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="61" t="s">
@@ -8982,7 +9504,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="62" t="s">
@@ -9307,7 +9829,7 @@
       <c r="L13" s="44"/>
       <c r="O13" s="79"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -9345,10 +9867,10 @@
       <c r="O14" s="79"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="61" t="s">
         <v>54</v>
       </c>
@@ -9380,8 +9902,8 @@
       <c r="O15" s="79"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="62" t="s">
         <v>55</v>
       </c>
@@ -9651,29 +10173,29 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -9692,7 +10214,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -9709,34 +10231,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -9793,7 +10315,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="76" t="s">
@@ -9891,7 +10413,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="77" t="s">
@@ -10005,7 +10527,7 @@
       <c r="K13" s="80"/>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -10015,15 +10537,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -10130,29 +10652,29 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -10171,7 +10693,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -10188,34 +10710,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -10272,7 +10794,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="82" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="76" t="s">
@@ -10484,7 +11006,7 @@
       <c r="K13" s="80"/>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -10494,15 +11016,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -10609,29 +11131,29 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -10650,7 +11172,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -10667,34 +11189,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -10751,7 +11273,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="82" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="76" t="s">
@@ -10963,7 +11485,7 @@
       <c r="K13" s="80"/>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -10973,15 +11495,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -11088,29 +11610,29 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -11129,7 +11651,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -11146,34 +11668,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -11442,7 +11964,7 @@
       <c r="K13" s="80"/>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -11452,15 +11974,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -11558,33 +12080,38 @@
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -11603,7 +12130,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -11620,34 +12147,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -11704,7 +12231,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="76" t="s">
@@ -11775,7 +12302,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="77"/>
@@ -11871,7 +12398,7 @@
       <c r="K13" s="80"/>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -11881,15 +12408,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -11987,33 +12514,38 @@
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -12032,7 +12564,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -12049,34 +12581,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -12133,7 +12665,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -12242,7 +12774,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -12511,7 +13043,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -12521,15 +13053,15 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -12636,29 +13168,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -12677,7 +13209,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -12694,34 +13226,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -12778,7 +13310,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -12887,7 +13419,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -13156,7 +13688,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -13166,15 +13698,15 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -13281,29 +13813,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -13322,7 +13854,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -13339,34 +13871,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -13423,7 +13955,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -13532,7 +14064,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>83</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -13801,7 +14333,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -13811,15 +14343,15 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -13926,29 +14458,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -13967,7 +14499,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -13984,34 +14516,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -14068,7 +14600,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -14177,7 +14709,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -14435,7 +14967,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -14445,15 +14977,15 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -14560,29 +15092,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -14601,7 +15133,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -14618,34 +15150,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -14702,7 +15234,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="76" t="s">
@@ -14813,7 +15345,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="77" t="s">
@@ -15075,7 +15607,7 @@
       </c>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -15085,15 +15617,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -15200,29 +15732,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:18" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -15241,7 +15773,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:18" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:18" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -15258,34 +15790,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:18" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:18" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -15343,7 +15875,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="76" t="s">
@@ -15458,7 +15990,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="77" t="s">
@@ -15727,7 +16259,7 @@
       </c>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:18" ht="13.5" thickBot="1">
+    <row r="14" spans="1:18" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -15737,15 +16269,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -15852,29 +16384,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15893,7 +16425,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -15910,34 +16442,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -15994,7 +16526,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="46" t="s">
@@ -16103,7 +16635,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>91</v>
       </c>
       <c r="C7" s="47" t="s">
@@ -16312,7 +16844,7 @@
       <c r="L13" s="9"/>
       <c r="O13" s="49"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -16323,16 +16855,16 @@
       <c r="O14" s="49"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="9"/>
       <c r="O15" s="49"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>

--- a/working_files/practice_xcs.xlsx
+++ b/working_files/practice_xcs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr backupFile="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="27" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="99">
   <si>
     <t>FIELDS Template</t>
   </si>
@@ -270,18 +270,6 @@
     <t>Single Conductor with 1 Ground line</t>
   </si>
   <si>
-    <t>HL_E</t>
-  </si>
-  <si>
-    <t>High Load Existing Scenario</t>
-  </si>
-  <si>
-    <t>HL_P</t>
-  </si>
-  <si>
-    <t>High Load Proposed Scenario</t>
-  </si>
-  <si>
     <t>und_E</t>
   </si>
   <si>
@@ -337,6 +325,12 @@
   </si>
   <si>
     <t>raise3</t>
+  </si>
+  <si>
+    <t>Existing Configuration</t>
+  </si>
+  <si>
+    <t>Proposed Configuration</t>
   </si>
 </sst>
 </file>
@@ -674,7 +668,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -693,6 +687,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -874,7 +870,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -882,6 +878,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -889,6 +886,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="17"/>
@@ -996,7 +994,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1189,11 +1186,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076452456"/>
-        <c:axId val="2076459416"/>
+        <c:axId val="2125744792"/>
+        <c:axId val="2125737832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2076452456"/>
+        <c:axId val="2125744792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,19 +1212,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076459416"/>
+        <c:crossAx val="2125737832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076459416"/>
+        <c:axId val="2125737832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,21 +1246,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076452456"/>
+        <c:crossAx val="2125744792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1539,11 +1533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2075879704"/>
-        <c:axId val="2075885288"/>
+        <c:axId val="2128117016"/>
+        <c:axId val="2128122600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2075879704"/>
+        <c:axId val="2128117016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,12 +1565,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075885288"/>
+        <c:crossAx val="2128122600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2075885288"/>
+        <c:axId val="2128122600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,7 +1599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075879704"/>
+        <c:crossAx val="2128117016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1946,11 +1940,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076669960"/>
-        <c:axId val="2076675528"/>
+        <c:axId val="2128175256"/>
+        <c:axId val="2128180840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2076669960"/>
+        <c:axId val="2128175256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,12 +1972,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076675528"/>
+        <c:crossAx val="2128180840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076675528"/>
+        <c:axId val="2128180840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,7 +2006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076669960"/>
+        <c:crossAx val="2128175256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2401,11 +2395,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2028326008"/>
-        <c:axId val="2028331592"/>
+        <c:axId val="2081985560"/>
+        <c:axId val="2081991176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2028326008"/>
+        <c:axId val="2081985560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,12 +2427,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2028331592"/>
+        <c:crossAx val="2081991176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2028331592"/>
+        <c:axId val="2081991176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,7 +2461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2028326008"/>
+        <c:crossAx val="2081985560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2724,11 +2718,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2075949064"/>
-        <c:axId val="2075954648"/>
+        <c:axId val="2128237112"/>
+        <c:axId val="2128242696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2075949064"/>
+        <c:axId val="2128237112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2756,12 +2750,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075954648"/>
+        <c:crossAx val="2128242696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2075954648"/>
+        <c:axId val="2128242696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2790,7 +2784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075949064"/>
+        <c:crossAx val="2128237112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3047,11 +3041,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076750328"/>
-        <c:axId val="2076755912"/>
+        <c:axId val="2128295608"/>
+        <c:axId val="2128301192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2076750328"/>
+        <c:axId val="2128295608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3079,12 +3073,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076755912"/>
+        <c:crossAx val="2128301192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076755912"/>
+        <c:axId val="2128301192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3113,7 +3107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076750328"/>
+        <c:crossAx val="2128295608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3370,11 +3364,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076006680"/>
-        <c:axId val="2076012264"/>
+        <c:axId val="2128353944"/>
+        <c:axId val="2128359528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2076006680"/>
+        <c:axId val="2128353944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3402,12 +3396,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076012264"/>
+        <c:crossAx val="2128359528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076012264"/>
+        <c:axId val="2128359528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +3430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076006680"/>
+        <c:crossAx val="2128353944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3483,7 +3477,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3694,11 +3687,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076791960"/>
-        <c:axId val="2076797544"/>
+        <c:axId val="2128411624"/>
+        <c:axId val="2128417208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2076791960"/>
+        <c:axId val="2128411624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3720,19 +3713,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076797544"/>
+        <c:crossAx val="2128417208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076797544"/>
+        <c:axId val="2128417208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3755,21 +3747,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076791960"/>
+        <c:crossAx val="2128411624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4009,11 +3999,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2075627992"/>
-        <c:axId val="2075633576"/>
+        <c:axId val="2124516024"/>
+        <c:axId val="2124510440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2075627992"/>
+        <c:axId val="2124516024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4042,12 +4032,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075633576"/>
+        <c:crossAx val="2124510440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2075633576"/>
+        <c:axId val="2124510440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4077,7 +4067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075627992"/>
+        <c:crossAx val="2124516024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4120,7 +4110,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>HL_E</c:v>
+              <c:v>Existing Configuration</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -4384,11 +4374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2075686104"/>
-        <c:axId val="2075691688"/>
+        <c:axId val="2124460344"/>
+        <c:axId val="2124454760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2075686104"/>
+        <c:axId val="2124460344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4417,12 +4407,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075691688"/>
+        <c:crossAx val="2124454760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2075691688"/>
+        <c:axId val="2124454760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4452,7 +4442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075686104"/>
+        <c:crossAx val="2124460344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4495,11 +4485,12 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>HL_P</c:v>
+              <c:v>Proposed Configuration</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4758,11 +4749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2075743096"/>
-        <c:axId val="2075748680"/>
+        <c:axId val="2126972136"/>
+        <c:axId val="2126977720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2075743096"/>
+        <c:axId val="2126972136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4784,18 +4775,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075748680"/>
+        <c:crossAx val="2126977720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2075748680"/>
+        <c:axId val="2126977720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4818,19 +4810,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075743096"/>
+        <c:crossAx val="2126972136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5129,11 +5123,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076493512"/>
-        <c:axId val="2076499096"/>
+        <c:axId val="2125648744"/>
+        <c:axId val="2125643160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2076493512"/>
+        <c:axId val="2125648744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5161,12 +5155,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076499096"/>
+        <c:crossAx val="2125643160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076499096"/>
+        <c:axId val="2125643160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5195,7 +5189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076493512"/>
+        <c:crossAx val="2125648744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5494,11 +5488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076508808"/>
-        <c:axId val="2076514456"/>
+        <c:axId val="2125589464"/>
+        <c:axId val="2125583880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2076508808"/>
+        <c:axId val="2125589464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5526,12 +5520,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076514456"/>
+        <c:crossAx val="2125583880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076514456"/>
+        <c:axId val="2125583880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5560,7 +5554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076508808"/>
+        <c:crossAx val="2125589464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5859,11 +5853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076590152"/>
-        <c:axId val="2076595736"/>
+        <c:axId val="2125530936"/>
+        <c:axId val="2125525352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2076590152"/>
+        <c:axId val="2125530936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5891,12 +5885,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076595736"/>
+        <c:crossAx val="2125525352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076595736"/>
+        <c:axId val="2125525352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5925,7 +5919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076590152"/>
+        <c:crossAx val="2125530936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6224,11 +6218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2075819720"/>
-        <c:axId val="2075825304"/>
+        <c:axId val="2125472392"/>
+        <c:axId val="2125466808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2075819720"/>
+        <c:axId val="2125472392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6256,12 +6250,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075825304"/>
+        <c:crossAx val="2125466808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2075825304"/>
+        <c:axId val="2125466808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6290,7 +6284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075819720"/>
+        <c:crossAx val="2125472392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6577,11 +6571,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076647832"/>
-        <c:axId val="2076653416"/>
+        <c:axId val="2128057048"/>
+        <c:axId val="2128062632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2076647832"/>
+        <c:axId val="2128057048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6609,12 +6603,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076653416"/>
+        <c:crossAx val="2128062632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076653416"/>
+        <c:axId val="2128062632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6643,7 +6637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076647832"/>
+        <c:crossAx val="2128057048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8086,7 +8080,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>37</v>
@@ -8195,7 +8189,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" s="54" t="s">
         <v>35</v>
@@ -8655,7 +8649,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>26</v>
@@ -8764,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" s="77" t="s">
         <v>24</v>
@@ -9396,7 +9390,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>26</v>
@@ -9505,7 +9499,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7" s="62" t="s">
         <v>24</v>
@@ -10316,7 +10310,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>24</v>
@@ -10795,7 +10789,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>24</v>
@@ -11274,7 +11268,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>24</v>
@@ -12092,7 +12086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -12526,8 +12520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12666,7 +12660,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>24</v>
@@ -12775,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>26</v>
@@ -13172,7 +13166,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13311,7 +13305,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>24</v>
@@ -13420,7 +13414,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>26</v>
@@ -13956,7 +13950,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>35</v>
@@ -14065,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>38</v>
@@ -14601,7 +14595,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>35</v>
@@ -14710,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>38</v>
@@ -15235,7 +15229,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>39</v>
@@ -15346,7 +15340,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C7" s="77" t="s">
         <v>41</v>
@@ -15876,7 +15870,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>35</v>
@@ -15991,7 +15985,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7" s="77" t="s">
         <v>38</v>
@@ -16527,7 +16521,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>37</v>
@@ -16636,7 +16630,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>35</v>

--- a/working_files/practice_xcs.xlsx
+++ b/working_files/practice_xcs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr backupFile="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" firstSheet="8"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="27" r:id="rId1"/>
@@ -13,16 +13,17 @@
     <sheet name="HL_P" sheetId="8" r:id="rId4"/>
     <sheet name="und_E" sheetId="15" r:id="rId5"/>
     <sheet name="und_P" sheetId="16" r:id="rId6"/>
-    <sheet name="14E" sheetId="21" r:id="rId7"/>
-    <sheet name="14P" sheetId="22" r:id="rId8"/>
-    <sheet name="18E" sheetId="17" r:id="rId9"/>
-    <sheet name="18P" sheetId="19" r:id="rId10"/>
-    <sheet name="32E" sheetId="20" r:id="rId11"/>
-    <sheet name="32P" sheetId="18" r:id="rId12"/>
-    <sheet name="raise1" sheetId="23" r:id="rId13"/>
-    <sheet name="raise2" sheetId="24" r:id="rId14"/>
-    <sheet name="raise3" sheetId="25" r:id="rId15"/>
-    <sheet name="Vertical_1_W" sheetId="33" r:id="rId16"/>
+    <sheet name="und_only" sheetId="34" r:id="rId7"/>
+    <sheet name="14E" sheetId="21" r:id="rId8"/>
+    <sheet name="14P" sheetId="22" r:id="rId9"/>
+    <sheet name="18E" sheetId="17" r:id="rId10"/>
+    <sheet name="18P" sheetId="19" r:id="rId11"/>
+    <sheet name="32E" sheetId="20" r:id="rId12"/>
+    <sheet name="32P" sheetId="18" r:id="rId13"/>
+    <sheet name="raise1" sheetId="23" r:id="rId14"/>
+    <sheet name="raise2" sheetId="24" r:id="rId15"/>
+    <sheet name="raise3" sheetId="25" r:id="rId16"/>
+    <sheet name="Vertical_1_W" sheetId="33" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="86">
   <si>
     <t>FIELDS Template</t>
   </si>
@@ -289,6 +290,9 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Underground Line Only</t>
   </si>
 </sst>
 </file>
@@ -1121,11 +1125,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="101043200"/>
-        <c:axId val="117240192"/>
+        <c:axId val="95013888"/>
+        <c:axId val="95024256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101043200"/>
+        <c:axId val="95013888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,12 +1154,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117240192"/>
+        <c:crossAx val="95024256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117240192"/>
+        <c:axId val="95024256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1185,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101043200"/>
+        <c:crossAx val="95013888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1195,13 +1199,335 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'18E'!$B$6</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Cross Section 18, Existing</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hot Wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'18E'!$D$5:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-37.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'18E'!$E$5:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ground-wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'18E'!$M$5:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-31.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'18E'!$N$5:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Right ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'18E'!$Q$7:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'18E'!$P$5:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>49.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Left ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'18E'!$Q$5:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'18E'!$P$5:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>49.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="96171520"/>
+        <c:axId val="96173440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="96171520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Horizontal Conductor Coordinate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96173440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="96173440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductor Height</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96171520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1436,11 +1762,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72470528"/>
-        <c:axId val="72472448"/>
+        <c:axId val="100924800"/>
+        <c:axId val="100934784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72470528"/>
+        <c:axId val="100924800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,12 +1790,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72472448"/>
+        <c:crossAx val="100934784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72472448"/>
+        <c:axId val="100934784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1820,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72470528"/>
+        <c:crossAx val="100924800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1507,13 +1833,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1808,11 +2134,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72559616"/>
-        <c:axId val="72623232"/>
+        <c:axId val="100969472"/>
+        <c:axId val="100979840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72559616"/>
+        <c:axId val="100969472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,12 +2162,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72623232"/>
+        <c:crossAx val="100979840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72623232"/>
+        <c:axId val="100979840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,7 +2192,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72559616"/>
+        <c:crossAx val="100969472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1879,13 +2205,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2228,11 +2554,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72667136"/>
-        <c:axId val="72669056"/>
+        <c:axId val="101016320"/>
+        <c:axId val="101018240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72667136"/>
+        <c:axId val="101016320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,12 +2582,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72669056"/>
+        <c:crossAx val="101018240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72669056"/>
+        <c:axId val="101018240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,7 +2612,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72667136"/>
+        <c:crossAx val="101016320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2299,13 +2625,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2516,11 +2842,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72770304"/>
-        <c:axId val="72772224"/>
+        <c:axId val="3044864"/>
+        <c:axId val="3046784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72770304"/>
+        <c:axId val="3044864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2544,12 +2870,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72772224"/>
+        <c:crossAx val="3046784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72772224"/>
+        <c:axId val="3046784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,7 +2900,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72770304"/>
+        <c:crossAx val="3044864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2587,13 +2913,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2804,11 +3130,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72836608"/>
-        <c:axId val="72838528"/>
+        <c:axId val="65509632"/>
+        <c:axId val="65524096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72836608"/>
+        <c:axId val="65509632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,12 +3158,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72838528"/>
+        <c:crossAx val="65524096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72838528"/>
+        <c:axId val="65524096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,7 +3188,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72836608"/>
+        <c:crossAx val="65509632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2875,13 +3201,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3092,11 +3418,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72935680"/>
-        <c:axId val="72958336"/>
+        <c:axId val="124999936"/>
+        <c:axId val="125018496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72935680"/>
+        <c:axId val="124999936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3120,12 +3446,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72958336"/>
+        <c:crossAx val="125018496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72958336"/>
+        <c:axId val="125018496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,7 +3476,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72935680"/>
+        <c:crossAx val="124999936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3163,13 +3489,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3380,11 +3706,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72997888"/>
-        <c:axId val="73012352"/>
+        <c:axId val="125074432"/>
+        <c:axId val="125080704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72997888"/>
+        <c:axId val="125074432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3408,12 +3734,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73012352"/>
+        <c:crossAx val="125080704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73012352"/>
+        <c:axId val="125080704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3438,7 +3764,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72997888"/>
+        <c:crossAx val="125074432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3451,7 +3777,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3473,7 +3799,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3657,11 +3982,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68190208"/>
-        <c:axId val="68192128"/>
+        <c:axId val="95080448"/>
+        <c:axId val="95082368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68190208"/>
+        <c:axId val="95080448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3682,16 +4007,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68192128"/>
+        <c:crossAx val="95082368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68192128"/>
+        <c:axId val="95082368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3713,25 +4037,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68190208"/>
+        <c:crossAx val="95080448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3996,11 +4318,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68256512"/>
-        <c:axId val="68258432"/>
+        <c:axId val="95167232"/>
+        <c:axId val="95169152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68256512"/>
+        <c:axId val="95167232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4024,12 +4346,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68258432"/>
+        <c:crossAx val="95169152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68258432"/>
+        <c:axId val="95169152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4054,7 +4376,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68256512"/>
+        <c:crossAx val="95167232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4067,7 +4389,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4332,11 +4654,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68290048"/>
-        <c:axId val="68291968"/>
+        <c:axId val="95217152"/>
+        <c:axId val="95219072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68290048"/>
+        <c:axId val="95217152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4360,12 +4682,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68291968"/>
+        <c:crossAx val="95219072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68291968"/>
+        <c:axId val="95219072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,7 +4712,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68290048"/>
+        <c:crossAx val="95217152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4403,7 +4725,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4668,11 +4990,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68520192"/>
-        <c:axId val="68534656"/>
+        <c:axId val="95578368"/>
+        <c:axId val="95592832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68520192"/>
+        <c:axId val="95578368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4696,12 +5018,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68534656"/>
+        <c:crossAx val="95592832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68534656"/>
+        <c:axId val="95592832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4726,7 +5048,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68520192"/>
+        <c:crossAx val="95578368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4739,7 +5061,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4999,11 +5321,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68963328"/>
-        <c:axId val="68973696"/>
+        <c:axId val="95665152"/>
+        <c:axId val="95671424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68963328"/>
+        <c:axId val="95665152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,12 +5350,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68973696"/>
+        <c:crossAx val="95671424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68973696"/>
+        <c:axId val="95671424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5059,7 +5381,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68963328"/>
+        <c:crossAx val="95665152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5073,13 +5395,299 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>und_only!$B$6</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Underground Line Only</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hot Wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>und_only!$D$5:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>18.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.329999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>und_only!$E$5:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ground-wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>und_only!$M$5:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>und_only!$N$5:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Right ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>und_only!$Q$7:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>und_only!$P$5:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>57.928500000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Left ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>und_only!$Q$5:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>und_only!$P$5:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>57.928500000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="140534144"/>
+        <c:axId val="140536064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="140534144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Horizontal Conductor Coordinate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140536064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="140536064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductor Height</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140534144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5332,11 +5940,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="69058560"/>
-        <c:axId val="69060480"/>
+        <c:axId val="95813632"/>
+        <c:axId val="95815552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69058560"/>
+        <c:axId val="95813632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5360,12 +5968,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69060480"/>
+        <c:crossAx val="95815552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69060480"/>
+        <c:axId val="95815552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5390,7 +5998,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69058560"/>
+        <c:crossAx val="95813632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5403,13 +6011,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5662,11 +6270,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="69108480"/>
-        <c:axId val="69110400"/>
+        <c:axId val="96117504"/>
+        <c:axId val="96119424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69108480"/>
+        <c:axId val="96117504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5690,12 +6298,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69110400"/>
+        <c:crossAx val="96119424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69110400"/>
+        <c:axId val="96119424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5720,7 +6328,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69108480"/>
+        <c:crossAx val="96117504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5733,325 +6341,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:strRef>
-          <c:f>'18E'!$B$6</c:f>
-          <c:strCache>
-            <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>Cross Section 18, Existing</c:v>
-            </c:pt>
-          </c:strCache>
-        </c:strRef>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Hot Wire Coordinates</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'18E'!$D$5:$D$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>-37.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-12.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'18E'!$E$5:$E$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Ground-wire Coordinates</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'18E'!$M$5:$M$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-31.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-18.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'18E'!$N$5:$N$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Right ROW Edge</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'18E'!$Q$7:$Q$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'18E'!$P$5:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>49.875</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Left ROW Edge</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'18E'!$Q$5:$Q$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-60</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'18E'!$P$5:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>49.875</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="69196800"/>
-        <c:axId val="72418432"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="69196800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Horizontal Conductor Coordinate</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72418432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="72418432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Conductor Height</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69196800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6217,9 +6507,7 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6311,6 +6599,43 @@
 </file>
 
 <file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6530,13 +6855,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6916,7 +7241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -7333,59 +7658,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="46" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="41" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="14" customWidth="1"/>
     <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="15.75">
@@ -7425,37 +7750,37 @@
       <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="25" t="s">
@@ -7475,48 +7800,48 @@
       <c r="B5" s="17">
         <v>18</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="52">
-        <v>-32.58</v>
-      </c>
-      <c r="E5" s="52">
-        <v>28.5</v>
-      </c>
-      <c r="F5" s="52">
-        <v>1</v>
-      </c>
-      <c r="G5" s="52">
-        <v>1.29</v>
-      </c>
-      <c r="H5" s="52">
-        <v>1.29</v>
-      </c>
-      <c r="I5" s="52">
+      <c r="D5" s="44">
+        <v>-37.5</v>
+      </c>
+      <c r="E5" s="44">
+        <v>33</v>
+      </c>
+      <c r="F5" s="44">
+        <v>1</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0.52</v>
+      </c>
+      <c r="H5" s="44">
+        <v>0.52</v>
+      </c>
+      <c r="I5" s="44">
         <v>115</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="44">
         <v>301</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="49">
         <v>240</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="57">
-        <v>-25</v>
-      </c>
-      <c r="N5" s="57">
-        <v>54.83</v>
-      </c>
-      <c r="O5" s="58">
+      <c r="M5" s="44">
+        <v>-31.25</v>
+      </c>
+      <c r="N5" s="44">
+        <v>47.5</v>
+      </c>
+      <c r="O5" s="49">
         <v>1</v>
       </c>
       <c r="P5" s="32">
         <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>57.5715</v>
+        <v>49.875</v>
       </c>
       <c r="Q5" s="32">
         <f>B12</f>
@@ -7528,45 +7853,45 @@
         <v>84</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="52">
-        <v>-17.41</v>
-      </c>
-      <c r="E6" s="52">
-        <v>34.5</v>
-      </c>
-      <c r="F6" s="52">
-        <v>1</v>
-      </c>
-      <c r="G6" s="52">
-        <v>1.29</v>
-      </c>
-      <c r="H6" s="52">
-        <v>1.29</v>
-      </c>
-      <c r="I6" s="52">
+      <c r="D6" s="44">
+        <v>-25</v>
+      </c>
+      <c r="E6" s="44">
+        <v>33</v>
+      </c>
+      <c r="F6" s="44">
+        <v>1</v>
+      </c>
+      <c r="G6" s="44">
+        <v>0.52</v>
+      </c>
+      <c r="H6" s="44">
+        <v>0.52</v>
+      </c>
+      <c r="I6" s="44">
         <v>115</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="44">
         <v>301</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="49">
         <v>0</v>
       </c>
-      <c r="L6" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="57">
-        <v>25</v>
-      </c>
-      <c r="N6" s="57">
-        <v>54.83</v>
-      </c>
-      <c r="O6" s="58">
+      <c r="L6" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="44">
+        <v>-18.75</v>
+      </c>
+      <c r="N6" s="44">
+        <v>47.5</v>
+      </c>
+      <c r="O6" s="49">
         <v>1</v>
       </c>
       <c r="P6" s="32">
@@ -7584,35 +7909,45 @@
       <c r="B7" s="18">
         <v>60</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="51">
-        <v>-32.58</v>
-      </c>
-      <c r="E7" s="51">
-        <v>40.5</v>
-      </c>
-      <c r="F7" s="51">
-        <v>1</v>
-      </c>
-      <c r="G7" s="51">
-        <v>1.29</v>
-      </c>
-      <c r="H7" s="51">
-        <v>1.29</v>
-      </c>
-      <c r="I7" s="51">
+      <c r="D7" s="43">
+        <v>-12.5</v>
+      </c>
+      <c r="E7" s="43">
+        <v>33</v>
+      </c>
+      <c r="F7" s="43">
+        <v>1</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0.52</v>
+      </c>
+      <c r="H7" s="43">
+        <v>0.52</v>
+      </c>
+      <c r="I7" s="43">
         <v>115</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="43">
         <v>301</v>
       </c>
-      <c r="K7" s="56">
+      <c r="K7" s="50">
         <v>120</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="O7" s="58"/>
+      <c r="L7" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="44">
+        <v>30.75</v>
+      </c>
+      <c r="N7" s="44">
+        <v>40.75</v>
+      </c>
+      <c r="O7" s="49">
+        <v>1</v>
+      </c>
       <c r="P7" s="32"/>
       <c r="Q7" s="32">
         <f>B13</f>
@@ -7626,36 +7961,37 @@
       <c r="B8" s="18">
         <v>100</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="52">
-        <v>17.41</v>
-      </c>
-      <c r="E8" s="52">
-        <v>28.5</v>
-      </c>
-      <c r="F8" s="52">
-        <v>1</v>
-      </c>
-      <c r="G8" s="52">
-        <v>1.29</v>
-      </c>
-      <c r="H8" s="52">
-        <v>1.29</v>
-      </c>
-      <c r="I8" s="52">
+      <c r="D8" s="44">
+        <v>13.5</v>
+      </c>
+      <c r="E8" s="44">
+        <v>25</v>
+      </c>
+      <c r="F8" s="44">
+        <v>1</v>
+      </c>
+      <c r="G8" s="44">
+        <v>0.52</v>
+      </c>
+      <c r="H8" s="44">
+        <v>0.52</v>
+      </c>
+      <c r="I8" s="44">
         <v>115</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="44">
         <v>316</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="49">
         <v>120</v>
       </c>
       <c r="L8" s="44"/>
       <c r="M8" s="35"/>
       <c r="N8" s="35"/>
+      <c r="O8" s="49"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="32">
         <f>B13</f>
@@ -7669,36 +8005,37 @@
       <c r="B9" s="17">
         <v>100</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="52">
-        <v>32.58</v>
-      </c>
-      <c r="E9" s="52">
-        <v>34.5</v>
-      </c>
-      <c r="F9" s="52">
-        <v>1</v>
-      </c>
-      <c r="G9" s="52">
-        <v>1.29</v>
-      </c>
-      <c r="H9" s="52">
-        <v>1.29</v>
-      </c>
-      <c r="I9" s="52">
+      <c r="D9" s="44">
+        <v>25</v>
+      </c>
+      <c r="E9" s="44">
+        <v>25</v>
+      </c>
+      <c r="F9" s="44">
+        <v>1</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0.52</v>
+      </c>
+      <c r="H9" s="44">
+        <v>0.52</v>
+      </c>
+      <c r="I9" s="44">
         <v>115</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="44">
         <v>316</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="49">
         <v>240</v>
       </c>
       <c r="L9" s="44"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
+      <c r="O9" s="49"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="16" t="s">
@@ -7707,36 +8044,37 @@
       <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="51">
-        <v>17.41</v>
-      </c>
-      <c r="E10" s="51">
-        <v>40.5</v>
-      </c>
-      <c r="F10" s="51">
-        <v>1</v>
-      </c>
-      <c r="G10" s="51">
-        <v>1.29</v>
-      </c>
-      <c r="H10" s="51">
-        <v>1.29</v>
-      </c>
-      <c r="I10" s="51">
+      <c r="D10" s="43">
+        <v>36.5</v>
+      </c>
+      <c r="E10" s="43">
+        <v>25</v>
+      </c>
+      <c r="F10" s="43">
+        <v>1</v>
+      </c>
+      <c r="G10" s="43">
+        <v>0.52</v>
+      </c>
+      <c r="H10" s="43">
+        <v>0.52</v>
+      </c>
+      <c r="I10" s="43">
         <v>115</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="43">
         <v>316</v>
       </c>
-      <c r="K10" s="56">
+      <c r="K10" s="50">
         <v>0</v>
       </c>
       <c r="L10" s="44"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
+      <c r="O10" s="49"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="16" t="s">
@@ -7745,7 +8083,8 @@
       <c r="B11" s="18">
         <v>3</v>
       </c>
-      <c r="L11" s="44"/>
+      <c r="L11" s="9"/>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="16" t="s">
@@ -7754,7 +8093,8 @@
       <c r="B12" s="17">
         <v>-60</v>
       </c>
-      <c r="L12" s="44"/>
+      <c r="L12" s="9"/>
+      <c r="O12" s="49"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
       <c r="A13" s="19" t="s">
@@ -7763,95 +8103,98 @@
       <c r="B13" s="20">
         <v>60</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="44"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="9"/>
+      <c r="O13" s="49"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="89" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="90"/>
-      <c r="L14" s="44"/>
+      <c r="L14" s="9"/>
+      <c r="O14" s="49"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
       <c r="A15" s="91"/>
       <c r="B15" s="92"/>
-      <c r="L15" s="44"/>
+      <c r="L15" s="9"/>
+      <c r="O15" s="49"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="C16" s="47"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="44"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="L17" s="44"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="L18" s="44"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="47"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="44"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="L20" s="44"/>
-      <c r="N20" s="35"/>
+      <c r="L20" s="9"/>
+      <c r="N20"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="N21" s="35"/>
+      <c r="N21"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="47"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="50"/>
-      <c r="N22" s="35"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="15"/>
+      <c r="N22"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="N23" s="35"/>
+      <c r="N23"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="N24" s="35"/>
+      <c r="N24"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="47"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="50"/>
-      <c r="N25" s="35"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="15"/>
+      <c r="N25"/>
     </row>
     <row r="26" spans="3:14">
       <c r="C26" s="33"/>
@@ -7863,8 +8206,8 @@
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
-      <c r="L26" s="46"/>
-      <c r="N26" s="35"/>
+      <c r="L26" s="11"/>
+      <c r="N26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7896,59 +8239,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="46" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" style="44" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="49" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="41" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="44" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="49" customWidth="1"/>
     <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="15.75">
@@ -7988,37 +8331,37 @@
       <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="75" t="s">
+      <c r="L4" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="25" t="s">
@@ -8036,54 +8379,54 @@
         <v>42</v>
       </c>
       <c r="B5" s="17">
-        <v>32</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="74">
-        <v>-234.5</v>
-      </c>
-      <c r="E5" s="74">
-        <v>22.33</v>
-      </c>
-      <c r="F5" s="74">
-        <v>1</v>
-      </c>
-      <c r="G5" s="74">
-        <v>1.04</v>
-      </c>
-      <c r="H5" s="74">
-        <v>1.04</v>
-      </c>
-      <c r="I5" s="74">
-        <v>345</v>
-      </c>
-      <c r="J5" s="74">
-        <v>2694</v>
-      </c>
-      <c r="K5" s="79">
+        <v>18</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="52">
+        <v>-32.58</v>
+      </c>
+      <c r="E5" s="52">
+        <v>28.5</v>
+      </c>
+      <c r="F5" s="52">
+        <v>1</v>
+      </c>
+      <c r="G5" s="52">
+        <v>1.29</v>
+      </c>
+      <c r="H5" s="52">
+        <v>1.29</v>
+      </c>
+      <c r="I5" s="52">
+        <v>115</v>
+      </c>
+      <c r="J5" s="52">
+        <v>301</v>
+      </c>
+      <c r="K5" s="55">
         <v>240</v>
       </c>
-      <c r="L5" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="74">
-        <v>-222</v>
-      </c>
-      <c r="N5" s="74">
-        <v>46.66</v>
-      </c>
-      <c r="O5" s="79">
+      <c r="L5" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="57">
+        <v>-25</v>
+      </c>
+      <c r="N5" s="57">
+        <v>54.83</v>
+      </c>
+      <c r="O5" s="58">
         <v>1</v>
       </c>
       <c r="P5" s="32">
         <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>97.902000000000001</v>
+        <v>57.5715</v>
       </c>
       <c r="Q5" s="32">
         <f>B12</f>
-        <v>-150</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -8091,45 +8434,45 @@
         <v>84</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="74">
-        <v>-200</v>
-      </c>
-      <c r="E6" s="74">
-        <v>22.33</v>
-      </c>
-      <c r="F6" s="74">
-        <v>1</v>
-      </c>
-      <c r="G6" s="74">
-        <v>1.04</v>
-      </c>
-      <c r="H6" s="74">
-        <v>1.04</v>
-      </c>
-      <c r="I6" s="74">
-        <v>345</v>
-      </c>
-      <c r="J6" s="74">
-        <v>2694</v>
-      </c>
-      <c r="K6" s="79">
-        <v>120</v>
-      </c>
-      <c r="L6" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="74">
-        <v>-178</v>
-      </c>
-      <c r="N6" s="74">
-        <v>46.66</v>
-      </c>
-      <c r="O6" s="79">
+        <v>79</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="52">
+        <v>-17.41</v>
+      </c>
+      <c r="E6" s="52">
+        <v>34.5</v>
+      </c>
+      <c r="F6" s="52">
+        <v>1</v>
+      </c>
+      <c r="G6" s="52">
+        <v>1.29</v>
+      </c>
+      <c r="H6" s="52">
+        <v>1.29</v>
+      </c>
+      <c r="I6" s="52">
+        <v>115</v>
+      </c>
+      <c r="J6" s="52">
+        <v>301</v>
+      </c>
+      <c r="K6" s="55">
+        <v>0</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="57">
+        <v>25</v>
+      </c>
+      <c r="N6" s="57">
+        <v>54.83</v>
+      </c>
+      <c r="O6" s="58">
         <v>1</v>
       </c>
       <c r="P6" s="32">
@@ -8137,7 +8480,7 @@
       </c>
       <c r="Q6" s="32">
         <f>B12</f>
-        <v>-150</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -8147,49 +8490,39 @@
       <c r="B7" s="18">
         <v>60</v>
       </c>
-      <c r="C7" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="73">
-        <v>-165.5</v>
-      </c>
-      <c r="E7" s="73">
-        <v>22.33</v>
-      </c>
-      <c r="F7" s="73">
-        <v>1</v>
-      </c>
-      <c r="G7" s="73">
-        <v>1.04</v>
-      </c>
-      <c r="H7" s="73">
-        <v>1.04</v>
-      </c>
-      <c r="I7" s="73">
-        <v>345</v>
-      </c>
-      <c r="J7" s="73">
-        <v>2694</v>
-      </c>
-      <c r="K7" s="80">
-        <v>0</v>
-      </c>
-      <c r="L7" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="74">
-        <v>-72</v>
-      </c>
-      <c r="N7" s="74">
-        <v>46.66</v>
-      </c>
-      <c r="O7" s="79">
-        <v>1</v>
-      </c>
+      <c r="C7" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="51">
+        <v>-32.58</v>
+      </c>
+      <c r="E7" s="51">
+        <v>40.5</v>
+      </c>
+      <c r="F7" s="51">
+        <v>1</v>
+      </c>
+      <c r="G7" s="51">
+        <v>1.29</v>
+      </c>
+      <c r="H7" s="51">
+        <v>1.29</v>
+      </c>
+      <c r="I7" s="51">
+        <v>115</v>
+      </c>
+      <c r="J7" s="51">
+        <v>301</v>
+      </c>
+      <c r="K7" s="56">
+        <v>120</v>
+      </c>
+      <c r="L7" s="44"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="32">
         <f>B13</f>
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -8199,49 +8532,40 @@
       <c r="B8" s="18">
         <v>100</v>
       </c>
-      <c r="C8" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="74">
-        <v>-84.5</v>
-      </c>
-      <c r="E8" s="74">
-        <v>22.33</v>
-      </c>
-      <c r="F8" s="74">
-        <v>1</v>
-      </c>
-      <c r="G8" s="74">
-        <v>1.04</v>
-      </c>
-      <c r="H8" s="74">
-        <v>1.04</v>
-      </c>
-      <c r="I8" s="74">
-        <v>345</v>
-      </c>
-      <c r="J8" s="74">
-        <v>2694</v>
-      </c>
-      <c r="K8" s="79">
-        <v>240</v>
-      </c>
-      <c r="L8" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="74">
-        <v>-28</v>
-      </c>
-      <c r="N8" s="74">
-        <v>46.66</v>
-      </c>
-      <c r="O8" s="79">
-        <v>1</v>
-      </c>
+      <c r="C8" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="52">
+        <v>17.41</v>
+      </c>
+      <c r="E8" s="52">
+        <v>28.5</v>
+      </c>
+      <c r="F8" s="52">
+        <v>1</v>
+      </c>
+      <c r="G8" s="52">
+        <v>1.29</v>
+      </c>
+      <c r="H8" s="52">
+        <v>1.29</v>
+      </c>
+      <c r="I8" s="52">
+        <v>115</v>
+      </c>
+      <c r="J8" s="52">
+        <v>316</v>
+      </c>
+      <c r="K8" s="55">
+        <v>120</v>
+      </c>
+      <c r="L8" s="44"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="32">
         <f>B13</f>
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -8249,47 +8573,38 @@
         <v>20</v>
       </c>
       <c r="B9" s="17">
-        <v>300</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="74">
-        <v>-50</v>
-      </c>
-      <c r="E9" s="74">
-        <v>22.33</v>
-      </c>
-      <c r="F9" s="74">
-        <v>1</v>
-      </c>
-      <c r="G9" s="74">
-        <v>1.04</v>
-      </c>
-      <c r="H9" s="74">
-        <v>1.04</v>
-      </c>
-      <c r="I9" s="74">
-        <v>345</v>
-      </c>
-      <c r="J9" s="74">
-        <v>2694</v>
-      </c>
-      <c r="K9" s="79">
-        <v>120</v>
-      </c>
-      <c r="L9" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="74">
-        <v>136</v>
-      </c>
-      <c r="N9" s="74">
-        <v>93.24</v>
-      </c>
-      <c r="O9" s="79">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="52">
+        <v>32.58</v>
+      </c>
+      <c r="E9" s="52">
+        <v>34.5</v>
+      </c>
+      <c r="F9" s="52">
+        <v>1</v>
+      </c>
+      <c r="G9" s="52">
+        <v>1.29</v>
+      </c>
+      <c r="H9" s="52">
+        <v>1.29</v>
+      </c>
+      <c r="I9" s="52">
+        <v>115</v>
+      </c>
+      <c r="J9" s="52">
+        <v>316</v>
+      </c>
+      <c r="K9" s="55">
+        <v>240</v>
+      </c>
+      <c r="L9" s="44"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="16" t="s">
@@ -8298,45 +8613,36 @@
       <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="73">
-        <v>-15.5</v>
-      </c>
-      <c r="E10" s="73">
-        <v>22.33</v>
-      </c>
-      <c r="F10" s="73">
-        <v>1</v>
-      </c>
-      <c r="G10" s="73">
-        <v>1.04</v>
-      </c>
-      <c r="H10" s="73">
-        <v>1.04</v>
-      </c>
-      <c r="I10" s="73">
-        <v>345</v>
-      </c>
-      <c r="J10" s="73">
-        <v>2694</v>
-      </c>
-      <c r="K10" s="80">
+      <c r="C10" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="51">
+        <v>17.41</v>
+      </c>
+      <c r="E10" s="51">
+        <v>40.5</v>
+      </c>
+      <c r="F10" s="51">
+        <v>1</v>
+      </c>
+      <c r="G10" s="51">
+        <v>1.29</v>
+      </c>
+      <c r="H10" s="51">
+        <v>1.29</v>
+      </c>
+      <c r="I10" s="51">
+        <v>115</v>
+      </c>
+      <c r="J10" s="51">
+        <v>316</v>
+      </c>
+      <c r="K10" s="56">
         <v>0</v>
       </c>
-      <c r="L10" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="74">
-        <v>164</v>
-      </c>
-      <c r="N10" s="74">
-        <v>88.58</v>
-      </c>
-      <c r="O10" s="79">
-        <v>1</v>
-      </c>
+      <c r="L10" s="44"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="16" t="s">
@@ -8345,248 +8651,113 @@
       <c r="B11" s="18">
         <v>3</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="74">
-        <v>129</v>
-      </c>
-      <c r="E11" s="74">
-        <v>22.33</v>
-      </c>
-      <c r="F11" s="74">
-        <v>1</v>
-      </c>
-      <c r="G11" s="74">
-        <v>1.73</v>
-      </c>
-      <c r="H11" s="74">
-        <v>1.73</v>
-      </c>
-      <c r="I11" s="74">
-        <v>345</v>
-      </c>
-      <c r="J11" s="74">
-        <v>2468</v>
-      </c>
-      <c r="K11" s="79">
-        <v>0</v>
-      </c>
-      <c r="L11" s="74"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="17">
-        <v>-150</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="74">
-        <v>124</v>
-      </c>
-      <c r="E12" s="74">
-        <v>45.33</v>
-      </c>
-      <c r="F12" s="74">
-        <v>1</v>
-      </c>
-      <c r="G12" s="74">
-        <v>1.73</v>
-      </c>
-      <c r="H12" s="74">
-        <v>1.73</v>
-      </c>
-      <c r="I12" s="74">
-        <v>345</v>
-      </c>
-      <c r="J12" s="74">
-        <v>2468</v>
-      </c>
-      <c r="K12" s="79">
-        <v>120</v>
-      </c>
-      <c r="L12" s="74"/>
+        <v>-60</v>
+      </c>
+      <c r="L12" s="44"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="20">
-        <v>150</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="73">
-        <v>128</v>
-      </c>
-      <c r="E13" s="73">
-        <v>68.33</v>
-      </c>
-      <c r="F13" s="73">
-        <v>1</v>
-      </c>
-      <c r="G13" s="73">
-        <v>1.73</v>
-      </c>
-      <c r="H13" s="73">
-        <v>1.73</v>
-      </c>
-      <c r="I13" s="73">
-        <v>345</v>
-      </c>
-      <c r="J13" s="73">
-        <v>2468</v>
-      </c>
-      <c r="K13" s="80">
-        <v>240</v>
-      </c>
-      <c r="L13" s="74"/>
+        <v>60</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="89" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="90"/>
-      <c r="C14" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="74">
-        <v>171</v>
-      </c>
-      <c r="E14" s="74">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="F14" s="74">
-        <v>1</v>
-      </c>
-      <c r="G14" s="74">
-        <v>1.73</v>
-      </c>
-      <c r="H14" s="74">
-        <v>1.73</v>
-      </c>
-      <c r="I14" s="74">
-        <v>115</v>
-      </c>
-      <c r="J14" s="74">
-        <v>2468</v>
-      </c>
-      <c r="K14" s="79">
-        <v>240</v>
-      </c>
-      <c r="L14" s="74"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
       <c r="A15" s="91"/>
       <c r="B15" s="92"/>
-      <c r="C15" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="74">
-        <v>176</v>
-      </c>
-      <c r="E15" s="74">
-        <v>40.67</v>
-      </c>
-      <c r="F15" s="74">
-        <v>1</v>
-      </c>
-      <c r="G15" s="74">
-        <v>1.73</v>
-      </c>
-      <c r="H15" s="74">
-        <v>1.73</v>
-      </c>
-      <c r="I15" s="74">
-        <v>115</v>
-      </c>
-      <c r="J15" s="74">
-        <v>2468</v>
-      </c>
-      <c r="K15" s="79">
-        <v>120</v>
-      </c>
-      <c r="L15" s="74"/>
+      <c r="L15" s="44"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="C16" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="73">
-        <v>172</v>
-      </c>
-      <c r="E16" s="73">
-        <v>63.67</v>
-      </c>
-      <c r="F16" s="73">
-        <v>1</v>
-      </c>
-      <c r="G16" s="73">
-        <v>1.73</v>
-      </c>
-      <c r="H16" s="73">
-        <v>1.73</v>
-      </c>
-      <c r="I16" s="73">
-        <v>115</v>
-      </c>
-      <c r="J16" s="73">
-        <v>2468</v>
-      </c>
-      <c r="K16" s="80">
-        <v>0</v>
-      </c>
-      <c r="L16" s="74"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="L17" s="74"/>
+      <c r="L17" s="44"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="L18" s="74"/>
+      <c r="L18" s="44"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="77"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="74"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="L20" s="74"/>
-      <c r="N20" s="65"/>
+      <c r="L20" s="44"/>
+      <c r="N20" s="35"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="N21" s="65"/>
+      <c r="N21" s="35"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="N22" s="65"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="50"/>
+      <c r="N22" s="35"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="N23" s="65"/>
+      <c r="N23" s="35"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="N24" s="65"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="77"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="80"/>
-      <c r="N25" s="65"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="50"/>
+      <c r="N25" s="35"/>
     </row>
     <row r="26" spans="3:14">
       <c r="C26" s="33"/>
@@ -8598,8 +8769,8 @@
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
-      <c r="L26" s="76"/>
-      <c r="N26" s="65"/>
+      <c r="L26" s="46"/>
+      <c r="N26" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8631,59 +8802,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="46" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="41" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
     <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="15.75">
@@ -8723,37 +8894,37 @@
       <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="25" t="s">
@@ -8773,31 +8944,31 @@
       <c r="B5" s="17">
         <v>32</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="74">
         <v>-234.5</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="74">
         <v>22.33</v>
       </c>
-      <c r="F5" s="60">
-        <v>1</v>
-      </c>
-      <c r="G5" s="60">
+      <c r="F5" s="74">
+        <v>1</v>
+      </c>
+      <c r="G5" s="74">
         <v>1.04</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="74">
         <v>1.04</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="74">
         <v>345</v>
       </c>
-      <c r="J5" s="60">
+      <c r="J5" s="74">
         <v>2694</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="79">
         <v>240</v>
       </c>
       <c r="L5" s="74" t="s">
@@ -8818,7 +8989,7 @@
       </c>
       <c r="Q5" s="32">
         <f>B12</f>
-        <v>-275</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -8826,33 +8997,33 @@
         <v>84</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="74">
         <v>-200</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="74">
         <v>22.33</v>
       </c>
-      <c r="F6" s="60">
-        <v>1</v>
-      </c>
-      <c r="G6" s="60">
+      <c r="F6" s="74">
+        <v>1</v>
+      </c>
+      <c r="G6" s="74">
         <v>1.04</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="74">
         <v>1.04</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="74">
         <v>345</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="74">
         <v>2694</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="79">
         <v>120</v>
       </c>
       <c r="L6" s="74" t="s">
@@ -8872,7 +9043,7 @@
       </c>
       <c r="Q6" s="32">
         <f>B12</f>
-        <v>-275</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -8882,31 +9053,31 @@
       <c r="B7" s="18">
         <v>60</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="73">
         <v>-165.5</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="73">
         <v>22.33</v>
       </c>
-      <c r="F7" s="59">
-        <v>1</v>
-      </c>
-      <c r="G7" s="59">
+      <c r="F7" s="73">
+        <v>1</v>
+      </c>
+      <c r="G7" s="73">
         <v>1.04</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="73">
         <v>1.04</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="73">
         <v>345</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="73">
         <v>2694</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="80">
         <v>0</v>
       </c>
       <c r="L7" s="74" t="s">
@@ -8924,7 +9095,7 @@
       <c r="P7" s="32"/>
       <c r="Q7" s="32">
         <f>B13</f>
-        <v>275</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -8934,31 +9105,31 @@
       <c r="B8" s="18">
         <v>100</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="74">
         <v>-84.5</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="74">
         <v>22.33</v>
       </c>
-      <c r="F8" s="60">
-        <v>1</v>
-      </c>
-      <c r="G8" s="60">
+      <c r="F8" s="74">
+        <v>1</v>
+      </c>
+      <c r="G8" s="74">
         <v>1.04</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="74">
         <v>1.04</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="74">
         <v>345</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="74">
         <v>2694</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="79">
         <v>240</v>
       </c>
       <c r="L8" s="74" t="s">
@@ -8976,7 +9147,7 @@
       <c r="P8" s="32"/>
       <c r="Q8" s="32">
         <f>B13</f>
-        <v>275</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -8986,31 +9157,31 @@
       <c r="B9" s="17">
         <v>300</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="74">
         <v>-50</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="74">
         <v>22.33</v>
       </c>
-      <c r="F9" s="60">
-        <v>1</v>
-      </c>
-      <c r="G9" s="60">
+      <c r="F9" s="74">
+        <v>1</v>
+      </c>
+      <c r="G9" s="74">
         <v>1.04</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="74">
         <v>1.04</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="74">
         <v>345</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="74">
         <v>2694</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="79">
         <v>120</v>
       </c>
       <c r="L9" s="74" t="s">
@@ -9033,31 +9204,31 @@
       <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="73">
         <v>-15.5</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="73">
         <v>22.33</v>
       </c>
-      <c r="F10" s="59">
-        <v>1</v>
-      </c>
-      <c r="G10" s="59">
+      <c r="F10" s="73">
+        <v>1</v>
+      </c>
+      <c r="G10" s="73">
         <v>1.04</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="73">
         <v>1.04</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="73">
         <v>345</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="73">
         <v>2694</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="80">
         <v>0</v>
       </c>
       <c r="L10" s="74" t="s">
@@ -9080,427 +9251,248 @@
       <c r="B11" s="18">
         <v>3</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="74">
         <v>129</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="74">
         <v>22.33</v>
       </c>
-      <c r="F11" s="60">
-        <v>1</v>
-      </c>
-      <c r="G11" s="60">
+      <c r="F11" s="74">
+        <v>1</v>
+      </c>
+      <c r="G11" s="74">
         <v>1.73</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="74">
         <v>1.73</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="74">
         <v>345</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="74">
         <v>2468</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="79">
         <v>0</v>
       </c>
-      <c r="L11" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="74">
-        <v>219.66</v>
-      </c>
-      <c r="N11" s="74">
-        <v>58.42</v>
-      </c>
-      <c r="O11" s="79">
-        <v>1</v>
-      </c>
+      <c r="L11" s="74"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="17">
-        <v>-275</v>
-      </c>
-      <c r="C12" s="61" t="s">
+        <v>-150</v>
+      </c>
+      <c r="C12" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="74">
         <v>124</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="74">
         <v>45.33</v>
       </c>
-      <c r="F12" s="60">
-        <v>1</v>
-      </c>
-      <c r="G12" s="60">
+      <c r="F12" s="74">
+        <v>1</v>
+      </c>
+      <c r="G12" s="74">
         <v>1.73</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="74">
         <v>1.73</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="74">
         <v>345</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="74">
         <v>2468</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="79">
         <v>120</v>
       </c>
-      <c r="L12" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="74">
-        <v>230.33</v>
-      </c>
-      <c r="N12" s="74">
-        <v>58.42</v>
-      </c>
-      <c r="O12" s="79">
-        <v>1</v>
-      </c>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="20">
-        <v>275</v>
-      </c>
-      <c r="C13" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="73">
         <v>128</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="73">
         <v>68.33</v>
       </c>
-      <c r="F13" s="59">
-        <v>1</v>
-      </c>
-      <c r="G13" s="59">
+      <c r="F13" s="73">
+        <v>1</v>
+      </c>
+      <c r="G13" s="73">
         <v>1.73</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="73">
         <v>1.73</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="73">
         <v>345</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="73">
         <v>2468</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="80">
         <v>240</v>
       </c>
-      <c r="L13" s="44"/>
-      <c r="O13" s="79"/>
+      <c r="L13" s="74"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="89" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="90"/>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="74">
         <v>171</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="74">
         <v>17.670000000000002</v>
       </c>
-      <c r="F14" s="60">
-        <v>1</v>
-      </c>
-      <c r="G14" s="60">
+      <c r="F14" s="74">
+        <v>1</v>
+      </c>
+      <c r="G14" s="74">
         <v>1.73</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="74">
         <v>1.73</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="74">
         <v>115</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="74">
         <v>2468</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="79">
         <v>240</v>
       </c>
-      <c r="L14" s="44"/>
-      <c r="O14" s="79"/>
+      <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
       <c r="A15" s="91"/>
       <c r="B15" s="92"/>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="74">
         <v>176</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="74">
         <v>40.67</v>
       </c>
-      <c r="F15" s="60">
-        <v>1</v>
-      </c>
-      <c r="G15" s="60">
+      <c r="F15" s="74">
+        <v>1</v>
+      </c>
+      <c r="G15" s="74">
         <v>1.73</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="74">
         <v>1.73</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="74">
         <v>115</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="74">
         <v>2468</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="79">
         <v>120</v>
       </c>
-      <c r="L15" s="44"/>
-      <c r="O15" s="79"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="73">
         <v>172</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="73">
         <v>63.67</v>
       </c>
-      <c r="F16" s="59">
-        <v>1</v>
-      </c>
-      <c r="G16" s="59">
+      <c r="F16" s="73">
+        <v>1</v>
+      </c>
+      <c r="G16" s="73">
         <v>1.73</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="73">
         <v>1.73</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="73">
         <v>115</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="73">
         <v>2468</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="80">
         <v>0</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="O16" s="79"/>
+      <c r="L16" s="74"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="60">
-        <v>217.58</v>
-      </c>
-      <c r="E17" s="60">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="F17" s="60">
-        <v>1</v>
-      </c>
-      <c r="G17" s="60">
-        <v>1.29</v>
-      </c>
-      <c r="H17" s="60">
-        <v>1.29</v>
-      </c>
-      <c r="I17" s="60">
-        <v>115</v>
-      </c>
-      <c r="J17" s="60">
-        <v>1664</v>
-      </c>
-      <c r="K17" s="63">
-        <v>0</v>
-      </c>
-      <c r="L17" s="44"/>
+      <c r="L17" s="74"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="60">
-        <v>214.33</v>
-      </c>
-      <c r="E18" s="60">
-        <v>32.17</v>
-      </c>
-      <c r="F18" s="60">
-        <v>1</v>
-      </c>
-      <c r="G18" s="60">
-        <v>1.29</v>
-      </c>
-      <c r="H18" s="60">
-        <v>1.29</v>
-      </c>
-      <c r="I18" s="60">
-        <v>115</v>
-      </c>
-      <c r="J18" s="60">
-        <v>1664</v>
-      </c>
-      <c r="K18" s="63">
-        <v>240</v>
-      </c>
-      <c r="L18" s="44"/>
+      <c r="L18" s="74"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="59">
-        <v>217.25</v>
-      </c>
-      <c r="E19" s="59">
-        <v>44.17</v>
-      </c>
-      <c r="F19" s="59">
-        <v>1</v>
-      </c>
-      <c r="G19" s="59">
-        <v>1.29</v>
-      </c>
-      <c r="H19" s="59">
-        <v>1.29</v>
-      </c>
-      <c r="I19" s="59">
-        <v>115</v>
-      </c>
-      <c r="J19" s="59">
-        <v>1664</v>
-      </c>
-      <c r="K19" s="64">
-        <v>120</v>
-      </c>
-      <c r="L19" s="44"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="74"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="60">
-        <v>232.41</v>
-      </c>
-      <c r="E20" s="60">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="F20" s="60">
-        <v>1</v>
-      </c>
-      <c r="G20" s="60">
-        <v>1.29</v>
-      </c>
-      <c r="H20" s="60">
-        <v>1.29</v>
-      </c>
-      <c r="I20" s="60">
-        <v>115</v>
-      </c>
-      <c r="J20" s="60">
-        <v>1664</v>
-      </c>
-      <c r="K20" s="63">
-        <v>120</v>
-      </c>
-      <c r="L20" s="44"/>
-      <c r="N20" s="35"/>
+      <c r="L20" s="74"/>
+      <c r="N20" s="65"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="60">
-        <v>235.66</v>
-      </c>
-      <c r="E21" s="60">
-        <v>32.17</v>
-      </c>
-      <c r="F21" s="60">
-        <v>1</v>
-      </c>
-      <c r="G21" s="60">
-        <v>1.29</v>
-      </c>
-      <c r="H21" s="60">
-        <v>1.29</v>
-      </c>
-      <c r="I21" s="60">
-        <v>115</v>
-      </c>
-      <c r="J21" s="60">
-        <v>1664</v>
-      </c>
-      <c r="K21" s="63">
-        <v>0</v>
-      </c>
-      <c r="N21" s="35"/>
+      <c r="N21" s="65"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="60">
-        <v>232.75</v>
-      </c>
-      <c r="E22" s="60">
-        <v>44.17</v>
-      </c>
-      <c r="F22" s="60">
-        <v>1</v>
-      </c>
-      <c r="G22" s="60">
-        <v>1.29</v>
-      </c>
-      <c r="H22" s="60">
-        <v>1.29</v>
-      </c>
-      <c r="I22" s="60">
-        <v>115</v>
-      </c>
-      <c r="J22" s="60">
-        <v>1664</v>
-      </c>
-      <c r="K22" s="63">
-        <v>240</v>
-      </c>
-      <c r="N22" s="35"/>
+      <c r="N22" s="65"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="N23" s="35"/>
+      <c r="N23" s="65"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="N24" s="35"/>
+      <c r="N24" s="65"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="47"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="50"/>
-      <c r="N25" s="35"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="80"/>
+      <c r="N25" s="65"/>
     </row>
     <row r="26" spans="3:14">
       <c r="C26" s="33"/>
@@ -9512,8 +9504,8 @@
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
-      <c r="L26" s="46"/>
-      <c r="N26" s="35"/>
+      <c r="L26" s="76"/>
+      <c r="N26" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9545,59 +9537,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="46" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" style="44" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="49" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="41" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="44" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="49" customWidth="1"/>
     <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="15.75">
@@ -9637,37 +9629,37 @@
       <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="75" t="s">
+      <c r="L4" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="25" t="s">
@@ -9684,55 +9676,55 @@
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="74">
-        <v>-10</v>
-      </c>
-      <c r="E5" s="74">
-        <v>10</v>
-      </c>
-      <c r="F5" s="74">
-        <v>1</v>
-      </c>
-      <c r="G5" s="74">
-        <v>1</v>
-      </c>
-      <c r="H5" s="74">
-        <v>1</v>
-      </c>
-      <c r="I5" s="74">
-        <v>500</v>
-      </c>
-      <c r="J5" s="74">
-        <v>500</v>
-      </c>
-      <c r="K5" s="79">
-        <v>0</v>
+      <c r="B5" s="17">
+        <v>32</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="60">
+        <v>-234.5</v>
+      </c>
+      <c r="E5" s="60">
+        <v>22.33</v>
+      </c>
+      <c r="F5" s="60">
+        <v>1</v>
+      </c>
+      <c r="G5" s="60">
+        <v>1.04</v>
+      </c>
+      <c r="H5" s="60">
+        <v>1.04</v>
+      </c>
+      <c r="I5" s="60">
+        <v>345</v>
+      </c>
+      <c r="J5" s="60">
+        <v>2694</v>
+      </c>
+      <c r="K5" s="63">
+        <v>240</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="74">
-        <v>0</v>
+        <v>-222</v>
       </c>
       <c r="N5" s="74">
-        <v>15</v>
+        <v>46.66</v>
       </c>
       <c r="O5" s="79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P5" s="32">
         <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>15.75</v>
+        <v>97.902000000000001</v>
       </c>
       <c r="Q5" s="32">
         <f>B12</f>
-        <v>-50</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -9740,42 +9732,53 @@
         <v>84</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="74">
-        <v>0</v>
-      </c>
-      <c r="E6" s="74">
-        <v>10</v>
-      </c>
-      <c r="F6" s="74">
-        <v>1</v>
-      </c>
-      <c r="G6" s="74">
-        <v>1</v>
-      </c>
-      <c r="H6" s="74">
-        <v>1</v>
-      </c>
-      <c r="I6" s="74">
-        <v>500</v>
-      </c>
-      <c r="J6" s="74">
-        <v>500</v>
-      </c>
-      <c r="K6" s="79">
+      <c r="D6" s="60">
+        <v>-200</v>
+      </c>
+      <c r="E6" s="60">
+        <v>22.33</v>
+      </c>
+      <c r="F6" s="60">
+        <v>1</v>
+      </c>
+      <c r="G6" s="60">
+        <v>1.04</v>
+      </c>
+      <c r="H6" s="60">
+        <v>1.04</v>
+      </c>
+      <c r="I6" s="60">
+        <v>345</v>
+      </c>
+      <c r="J6" s="60">
+        <v>2694</v>
+      </c>
+      <c r="K6" s="63">
         <v>120</v>
       </c>
-      <c r="L6" s="74"/>
+      <c r="L6" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="74">
+        <v>-178</v>
+      </c>
+      <c r="N6" s="74">
+        <v>46.66</v>
+      </c>
+      <c r="O6" s="79">
+        <v>1</v>
+      </c>
       <c r="P6" s="32">
         <v>0</v>
       </c>
       <c r="Q6" s="32">
         <f>B12</f>
-        <v>-50</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -9785,38 +9788,49 @@
       <c r="B7" s="18">
         <v>60</v>
       </c>
-      <c r="C7" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="73">
-        <v>10</v>
-      </c>
-      <c r="E7" s="73">
-        <v>10</v>
-      </c>
-      <c r="F7" s="73">
-        <v>1</v>
-      </c>
-      <c r="G7" s="73">
-        <v>1</v>
-      </c>
-      <c r="H7" s="73">
-        <v>1</v>
-      </c>
-      <c r="I7" s="73">
-        <v>500</v>
-      </c>
-      <c r="J7" s="73">
-        <v>500</v>
-      </c>
-      <c r="K7" s="80">
-        <v>240</v>
-      </c>
-      <c r="L7" s="74"/>
+      <c r="C7" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="59">
+        <v>-165.5</v>
+      </c>
+      <c r="E7" s="59">
+        <v>22.33</v>
+      </c>
+      <c r="F7" s="59">
+        <v>1</v>
+      </c>
+      <c r="G7" s="59">
+        <v>1.04</v>
+      </c>
+      <c r="H7" s="59">
+        <v>1.04</v>
+      </c>
+      <c r="I7" s="59">
+        <v>345</v>
+      </c>
+      <c r="J7" s="59">
+        <v>2694</v>
+      </c>
+      <c r="K7" s="64">
+        <v>0</v>
+      </c>
+      <c r="L7" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="74">
+        <v>-72</v>
+      </c>
+      <c r="N7" s="74">
+        <v>46.66</v>
+      </c>
+      <c r="O7" s="79">
+        <v>1</v>
+      </c>
       <c r="P7" s="32"/>
       <c r="Q7" s="32">
         <f>B13</f>
-        <v>50</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -9826,11 +9840,49 @@
       <c r="B8" s="18">
         <v>100</v>
       </c>
-      <c r="L8" s="74"/>
+      <c r="C8" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="60">
+        <v>-84.5</v>
+      </c>
+      <c r="E8" s="60">
+        <v>22.33</v>
+      </c>
+      <c r="F8" s="60">
+        <v>1</v>
+      </c>
+      <c r="G8" s="60">
+        <v>1.04</v>
+      </c>
+      <c r="H8" s="60">
+        <v>1.04</v>
+      </c>
+      <c r="I8" s="60">
+        <v>345</v>
+      </c>
+      <c r="J8" s="60">
+        <v>2694</v>
+      </c>
+      <c r="K8" s="63">
+        <v>240</v>
+      </c>
+      <c r="L8" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="74">
+        <v>-28</v>
+      </c>
+      <c r="N8" s="74">
+        <v>46.66</v>
+      </c>
+      <c r="O8" s="79">
+        <v>1</v>
+      </c>
       <c r="P8" s="32"/>
       <c r="Q8" s="32">
         <f>B13</f>
-        <v>50</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9838,9 +9890,47 @@
         <v>20</v>
       </c>
       <c r="B9" s="17">
-        <v>250</v>
-      </c>
-      <c r="L9" s="74"/>
+        <v>300</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="60">
+        <v>-50</v>
+      </c>
+      <c r="E9" s="60">
+        <v>22.33</v>
+      </c>
+      <c r="F9" s="60">
+        <v>1</v>
+      </c>
+      <c r="G9" s="60">
+        <v>1.04</v>
+      </c>
+      <c r="H9" s="60">
+        <v>1.04</v>
+      </c>
+      <c r="I9" s="60">
+        <v>345</v>
+      </c>
+      <c r="J9" s="60">
+        <v>2694</v>
+      </c>
+      <c r="K9" s="63">
+        <v>120</v>
+      </c>
+      <c r="L9" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="74">
+        <v>136</v>
+      </c>
+      <c r="N9" s="74">
+        <v>93.24</v>
+      </c>
+      <c r="O9" s="79">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="16" t="s">
@@ -9849,16 +9939,45 @@
       <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="74"/>
+      <c r="C10" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="59">
+        <v>-15.5</v>
+      </c>
+      <c r="E10" s="59">
+        <v>22.33</v>
+      </c>
+      <c r="F10" s="59">
+        <v>1</v>
+      </c>
+      <c r="G10" s="59">
+        <v>1.04</v>
+      </c>
+      <c r="H10" s="59">
+        <v>1.04</v>
+      </c>
+      <c r="I10" s="59">
+        <v>345</v>
+      </c>
+      <c r="J10" s="59">
+        <v>2694</v>
+      </c>
+      <c r="K10" s="64">
+        <v>0</v>
+      </c>
+      <c r="L10" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="74">
+        <v>164</v>
+      </c>
+      <c r="N10" s="74">
+        <v>88.58</v>
+      </c>
+      <c r="O10" s="79">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="16" t="s">
@@ -9867,113 +9986,427 @@
       <c r="B11" s="18">
         <v>3</v>
       </c>
-      <c r="L11" s="74"/>
+      <c r="C11" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="60">
+        <v>129</v>
+      </c>
+      <c r="E11" s="60">
+        <v>22.33</v>
+      </c>
+      <c r="F11" s="60">
+        <v>1</v>
+      </c>
+      <c r="G11" s="60">
+        <v>1.73</v>
+      </c>
+      <c r="H11" s="60">
+        <v>1.73</v>
+      </c>
+      <c r="I11" s="60">
+        <v>345</v>
+      </c>
+      <c r="J11" s="60">
+        <v>2468</v>
+      </c>
+      <c r="K11" s="63">
+        <v>0</v>
+      </c>
+      <c r="L11" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="74">
+        <v>219.66</v>
+      </c>
+      <c r="N11" s="74">
+        <v>58.42</v>
+      </c>
+      <c r="O11" s="79">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="17">
-        <v>-50</v>
-      </c>
-      <c r="L12" s="74"/>
+        <v>-275</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="60">
+        <v>124</v>
+      </c>
+      <c r="E12" s="60">
+        <v>45.33</v>
+      </c>
+      <c r="F12" s="60">
+        <v>1</v>
+      </c>
+      <c r="G12" s="60">
+        <v>1.73</v>
+      </c>
+      <c r="H12" s="60">
+        <v>1.73</v>
+      </c>
+      <c r="I12" s="60">
+        <v>345</v>
+      </c>
+      <c r="J12" s="60">
+        <v>2468</v>
+      </c>
+      <c r="K12" s="63">
+        <v>120</v>
+      </c>
+      <c r="L12" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="74">
+        <v>230.33</v>
+      </c>
+      <c r="N12" s="74">
+        <v>58.42</v>
+      </c>
+      <c r="O12" s="79">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="20">
+        <v>275</v>
+      </c>
+      <c r="C13" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="74"/>
+      <c r="D13" s="59">
+        <v>128</v>
+      </c>
+      <c r="E13" s="59">
+        <v>68.33</v>
+      </c>
+      <c r="F13" s="59">
+        <v>1</v>
+      </c>
+      <c r="G13" s="59">
+        <v>1.73</v>
+      </c>
+      <c r="H13" s="59">
+        <v>1.73</v>
+      </c>
+      <c r="I13" s="59">
+        <v>345</v>
+      </c>
+      <c r="J13" s="59">
+        <v>2468</v>
+      </c>
+      <c r="K13" s="64">
+        <v>240</v>
+      </c>
+      <c r="L13" s="44"/>
+      <c r="O13" s="79"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="89" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="90"/>
-      <c r="L14" s="74"/>
+      <c r="C14" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="60">
+        <v>171</v>
+      </c>
+      <c r="E14" s="60">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="F14" s="60">
+        <v>1</v>
+      </c>
+      <c r="G14" s="60">
+        <v>1.73</v>
+      </c>
+      <c r="H14" s="60">
+        <v>1.73</v>
+      </c>
+      <c r="I14" s="60">
+        <v>115</v>
+      </c>
+      <c r="J14" s="60">
+        <v>2468</v>
+      </c>
+      <c r="K14" s="63">
+        <v>240</v>
+      </c>
+      <c r="L14" s="44"/>
+      <c r="O14" s="79"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
       <c r="A15" s="91"/>
       <c r="B15" s="92"/>
-      <c r="L15" s="74"/>
+      <c r="C15" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="60">
+        <v>176</v>
+      </c>
+      <c r="E15" s="60">
+        <v>40.67</v>
+      </c>
+      <c r="F15" s="60">
+        <v>1</v>
+      </c>
+      <c r="G15" s="60">
+        <v>1.73</v>
+      </c>
+      <c r="H15" s="60">
+        <v>1.73</v>
+      </c>
+      <c r="I15" s="60">
+        <v>115</v>
+      </c>
+      <c r="J15" s="60">
+        <v>2468</v>
+      </c>
+      <c r="K15" s="63">
+        <v>120</v>
+      </c>
+      <c r="L15" s="44"/>
+      <c r="O15" s="79"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="C16" s="77"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="74"/>
+      <c r="C16" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="59">
+        <v>172</v>
+      </c>
+      <c r="E16" s="59">
+        <v>63.67</v>
+      </c>
+      <c r="F16" s="59">
+        <v>1</v>
+      </c>
+      <c r="G16" s="59">
+        <v>1.73</v>
+      </c>
+      <c r="H16" s="59">
+        <v>1.73</v>
+      </c>
+      <c r="I16" s="59">
+        <v>115</v>
+      </c>
+      <c r="J16" s="59">
+        <v>2468</v>
+      </c>
+      <c r="K16" s="64">
+        <v>0</v>
+      </c>
+      <c r="L16" s="44"/>
+      <c r="O16" s="79"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="L17" s="74"/>
+      <c r="C17" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="60">
+        <v>217.58</v>
+      </c>
+      <c r="E17" s="60">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="F17" s="60">
+        <v>1</v>
+      </c>
+      <c r="G17" s="60">
+        <v>1.29</v>
+      </c>
+      <c r="H17" s="60">
+        <v>1.29</v>
+      </c>
+      <c r="I17" s="60">
+        <v>115</v>
+      </c>
+      <c r="J17" s="60">
+        <v>1664</v>
+      </c>
+      <c r="K17" s="63">
+        <v>0</v>
+      </c>
+      <c r="L17" s="44"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="L18" s="74"/>
+      <c r="C18" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="60">
+        <v>214.33</v>
+      </c>
+      <c r="E18" s="60">
+        <v>32.17</v>
+      </c>
+      <c r="F18" s="60">
+        <v>1</v>
+      </c>
+      <c r="G18" s="60">
+        <v>1.29</v>
+      </c>
+      <c r="H18" s="60">
+        <v>1.29</v>
+      </c>
+      <c r="I18" s="60">
+        <v>115</v>
+      </c>
+      <c r="J18" s="60">
+        <v>1664</v>
+      </c>
+      <c r="K18" s="63">
+        <v>240</v>
+      </c>
+      <c r="L18" s="44"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="77"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="74"/>
+      <c r="C19" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="59">
+        <v>217.25</v>
+      </c>
+      <c r="E19" s="59">
+        <v>44.17</v>
+      </c>
+      <c r="F19" s="59">
+        <v>1</v>
+      </c>
+      <c r="G19" s="59">
+        <v>1.29</v>
+      </c>
+      <c r="H19" s="59">
+        <v>1.29</v>
+      </c>
+      <c r="I19" s="59">
+        <v>115</v>
+      </c>
+      <c r="J19" s="59">
+        <v>1664</v>
+      </c>
+      <c r="K19" s="64">
+        <v>120</v>
+      </c>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="L20" s="74"/>
-      <c r="N20" s="65"/>
+      <c r="C20" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="60">
+        <v>232.41</v>
+      </c>
+      <c r="E20" s="60">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="F20" s="60">
+        <v>1</v>
+      </c>
+      <c r="G20" s="60">
+        <v>1.29</v>
+      </c>
+      <c r="H20" s="60">
+        <v>1.29</v>
+      </c>
+      <c r="I20" s="60">
+        <v>115</v>
+      </c>
+      <c r="J20" s="60">
+        <v>1664</v>
+      </c>
+      <c r="K20" s="63">
+        <v>120</v>
+      </c>
+      <c r="L20" s="44"/>
+      <c r="N20" s="35"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="N21" s="65"/>
+      <c r="C21" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="60">
+        <v>235.66</v>
+      </c>
+      <c r="E21" s="60">
+        <v>32.17</v>
+      </c>
+      <c r="F21" s="60">
+        <v>1</v>
+      </c>
+      <c r="G21" s="60">
+        <v>1.29</v>
+      </c>
+      <c r="H21" s="60">
+        <v>1.29</v>
+      </c>
+      <c r="I21" s="60">
+        <v>115</v>
+      </c>
+      <c r="J21" s="60">
+        <v>1664</v>
+      </c>
+      <c r="K21" s="63">
+        <v>0</v>
+      </c>
+      <c r="N21" s="35"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="77"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="80"/>
-      <c r="N22" s="65"/>
+      <c r="C22" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="60">
+        <v>232.75</v>
+      </c>
+      <c r="E22" s="60">
+        <v>44.17</v>
+      </c>
+      <c r="F22" s="60">
+        <v>1</v>
+      </c>
+      <c r="G22" s="60">
+        <v>1.29</v>
+      </c>
+      <c r="H22" s="60">
+        <v>1.29</v>
+      </c>
+      <c r="I22" s="60">
+        <v>115</v>
+      </c>
+      <c r="J22" s="60">
+        <v>1664</v>
+      </c>
+      <c r="K22" s="63">
+        <v>240</v>
+      </c>
+      <c r="N22" s="35"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="N23" s="65"/>
+      <c r="N23" s="35"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="N24" s="65"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="77"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="80"/>
-      <c r="N25" s="65"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="50"/>
+      <c r="N25" s="35"/>
     </row>
     <row r="26" spans="3:14">
       <c r="C26" s="33"/>
@@ -9985,8 +10418,8 @@
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
-      <c r="L26" s="76"/>
-      <c r="N26" s="65"/>
+      <c r="L26" s="46"/>
+      <c r="N26" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10018,7 +10451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -10167,7 +10600,7 @@
         <v>-10</v>
       </c>
       <c r="E5" s="74">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F5" s="74">
         <v>1</v>
@@ -10194,14 +10627,14 @@
         <v>0</v>
       </c>
       <c r="N5" s="74">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O5" s="79">
         <v>0.5</v>
       </c>
       <c r="P5" s="32">
         <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>26.25</v>
+        <v>15.75</v>
       </c>
       <c r="Q5" s="32">
         <f>B12</f>
@@ -10212,8 +10645,8 @@
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>64</v>
+      <c r="B6" s="82" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="76" t="s">
         <v>24</v>
@@ -10222,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="74">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6" s="74">
         <v>1</v>
@@ -10265,7 +10698,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="73">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F7" s="73">
         <v>1</v>
@@ -10491,7 +10924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -10640,7 +11073,7 @@
         <v>-10</v>
       </c>
       <c r="E5" s="74">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F5" s="74">
         <v>1</v>
@@ -10667,14 +11100,14 @@
         <v>0</v>
       </c>
       <c r="N5" s="74">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O5" s="79">
         <v>0.5</v>
       </c>
       <c r="P5" s="32">
         <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>36.75</v>
+        <v>26.25</v>
       </c>
       <c r="Q5" s="32">
         <f>B12</f>
@@ -10686,7 +11119,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="76" t="s">
         <v>24</v>
@@ -10695,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="74">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" s="74">
         <v>1</v>
@@ -10738,7 +11171,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="73">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F7" s="73">
         <v>1</v>
@@ -10964,7 +11397,480 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75">
+      <c r="A3" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="88"/>
+    </row>
+    <row r="4" spans="1:17" ht="38.25">
+      <c r="A4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="74">
+        <v>-10</v>
+      </c>
+      <c r="E5" s="74">
+        <v>30</v>
+      </c>
+      <c r="F5" s="74">
+        <v>1</v>
+      </c>
+      <c r="G5" s="74">
+        <v>1</v>
+      </c>
+      <c r="H5" s="74">
+        <v>1</v>
+      </c>
+      <c r="I5" s="74">
+        <v>500</v>
+      </c>
+      <c r="J5" s="74">
+        <v>500</v>
+      </c>
+      <c r="K5" s="79">
+        <v>0</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="74">
+        <v>0</v>
+      </c>
+      <c r="N5" s="74">
+        <v>35</v>
+      </c>
+      <c r="O5" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="32">
+        <f>MAX(E5:E25,N5:N26)*1.05</f>
+        <v>36.75</v>
+      </c>
+      <c r="Q5" s="32">
+        <f>B12</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="74">
+        <v>0</v>
+      </c>
+      <c r="E6" s="74">
+        <v>30</v>
+      </c>
+      <c r="F6" s="74">
+        <v>1</v>
+      </c>
+      <c r="G6" s="74">
+        <v>1</v>
+      </c>
+      <c r="H6" s="74">
+        <v>1</v>
+      </c>
+      <c r="I6" s="74">
+        <v>500</v>
+      </c>
+      <c r="J6" s="74">
+        <v>500</v>
+      </c>
+      <c r="K6" s="79">
+        <v>120</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="P6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32">
+        <f>B12</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>60</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="73">
+        <v>10</v>
+      </c>
+      <c r="E7" s="73">
+        <v>30</v>
+      </c>
+      <c r="F7" s="73">
+        <v>1</v>
+      </c>
+      <c r="G7" s="73">
+        <v>1</v>
+      </c>
+      <c r="H7" s="73">
+        <v>1</v>
+      </c>
+      <c r="I7" s="73">
+        <v>500</v>
+      </c>
+      <c r="J7" s="73">
+        <v>500</v>
+      </c>
+      <c r="K7" s="80">
+        <v>240</v>
+      </c>
+      <c r="L7" s="74"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32">
+        <f>B13</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18">
+        <v>100</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32">
+        <f>B13</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="17">
+        <v>250</v>
+      </c>
+      <c r="L9" s="74"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="L11" s="74"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17">
+        <v>-50</v>
+      </c>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="20">
+        <v>50</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="74"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="90"/>
+      <c r="L14" s="74"/>
+    </row>
+    <row r="15" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A15" s="91"/>
+      <c r="B15" s="92"/>
+      <c r="L15" s="74"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="C16" s="77"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="74"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="L17" s="74"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="L18" s="74"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="77"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="74"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="L20" s="74"/>
+      <c r="N20" s="65"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="N21" s="65"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="77"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="80"/>
+      <c r="N22" s="65"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="N23" s="65"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="N24" s="65"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="77"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="80"/>
+      <c r="N25" s="65"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="76"/>
+      <c r="N26" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A14:B15"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
+    <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
+&amp;"-,Regular"&amp;K4D4D4D
+&amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -11437,7 +12343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -11865,7 +12771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -12504,7 +13410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -13143,7 +14049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -13782,7 +14688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -14408,9 +15314,442 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75">
+      <c r="A3" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="88"/>
+    </row>
+    <row r="4" spans="1:17" ht="38.25">
+      <c r="A4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="74">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="E5" s="74">
+        <v>-5</v>
+      </c>
+      <c r="F5" s="74">
+        <v>1</v>
+      </c>
+      <c r="G5" s="74">
+        <v>0.68</v>
+      </c>
+      <c r="H5" s="74">
+        <v>0.68</v>
+      </c>
+      <c r="I5" s="74">
+        <v>345</v>
+      </c>
+      <c r="J5" s="74">
+        <v>450</v>
+      </c>
+      <c r="K5" s="79">
+        <v>240</v>
+      </c>
+      <c r="L5" s="74"/>
+      <c r="P5" s="32">
+        <f>MAX(E5:E19,N5:N24)*1.05</f>
+        <v>-5.25</v>
+      </c>
+      <c r="Q5" s="32">
+        <f>B12</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="74">
+        <v>19</v>
+      </c>
+      <c r="E6" s="74">
+        <v>-5</v>
+      </c>
+      <c r="F6" s="74">
+        <v>1</v>
+      </c>
+      <c r="G6" s="74">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="74">
+        <v>0.68</v>
+      </c>
+      <c r="I6" s="74">
+        <v>345</v>
+      </c>
+      <c r="J6" s="74">
+        <v>450</v>
+      </c>
+      <c r="K6" s="79">
+        <v>120</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="P6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32">
+        <f>B12</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>60</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="73">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="E7" s="73">
+        <v>-5</v>
+      </c>
+      <c r="F7" s="73">
+        <v>1</v>
+      </c>
+      <c r="G7" s="73">
+        <v>0.68</v>
+      </c>
+      <c r="H7" s="73">
+        <v>0.68</v>
+      </c>
+      <c r="I7" s="73">
+        <v>345</v>
+      </c>
+      <c r="J7" s="73">
+        <v>450</v>
+      </c>
+      <c r="K7" s="80">
+        <v>0</v>
+      </c>
+      <c r="L7" s="74"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32">
+        <f>B13</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18">
+        <v>100</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32">
+        <f>B13</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="82">
+        <v>150</v>
+      </c>
+      <c r="L9" s="74"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="82">
+        <v>1</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="L11" s="74"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="82">
+        <v>-50</v>
+      </c>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="20">
+        <v>50</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="74"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="90"/>
+      <c r="L14" s="74"/>
+    </row>
+    <row r="15" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A15" s="91"/>
+      <c r="B15" s="92"/>
+      <c r="L15" s="74"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="C16" s="77"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="74"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="L17" s="74"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="L18" s="74"/>
+      <c r="N18" s="65"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="77"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="80"/>
+      <c r="N19" s="65"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="N20" s="65"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="N21" s="65"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="N22" s="65"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="N23" s="65"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="L24" s="76"/>
+      <c r="N24" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A14:B15"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
+    <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
+&amp;"-,Regular"&amp;K4D4D4D
+&amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -14935,652 +16274,6 @@
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="C16" s="77"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="74"/>
-    </row>
-    <row r="17" spans="3:14">
-      <c r="L17" s="74"/>
-    </row>
-    <row r="18" spans="3:14">
-      <c r="L18" s="74"/>
-    </row>
-    <row r="19" spans="3:14">
-      <c r="C19" s="77"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="74"/>
-    </row>
-    <row r="20" spans="3:14">
-      <c r="L20" s="74"/>
-      <c r="N20" s="65"/>
-    </row>
-    <row r="21" spans="3:14">
-      <c r="N21" s="65"/>
-    </row>
-    <row r="22" spans="3:14">
-      <c r="C22" s="77"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="80"/>
-      <c r="N22" s="65"/>
-    </row>
-    <row r="23" spans="3:14">
-      <c r="N23" s="65"/>
-    </row>
-    <row r="24" spans="3:14">
-      <c r="N24" s="65"/>
-    </row>
-    <row r="25" spans="3:14">
-      <c r="C25" s="77"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="80"/>
-      <c r="N25" s="65"/>
-    </row>
-    <row r="26" spans="3:14">
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="76"/>
-      <c r="N26" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A14:B15"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
-    <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
-&amp;"-,Regular"&amp;K4D4D4D
-&amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="27" customFormat="1" ht="15">
-      <c r="A1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="26"/>
-    </row>
-    <row r="2" spans="1:18" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="28"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75">
-      <c r="A3" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="88"/>
-    </row>
-    <row r="4" spans="1:18" ht="38.25">
-      <c r="A4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="32"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="17">
-        <v>14</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="74">
-        <v>-33.42</v>
-      </c>
-      <c r="E5" s="74">
-        <f>E7+12+12</f>
-        <v>55</v>
-      </c>
-      <c r="F5" s="74">
-        <v>1</v>
-      </c>
-      <c r="G5" s="74">
-        <v>1.29</v>
-      </c>
-      <c r="H5" s="74">
-        <v>1.29</v>
-      </c>
-      <c r="I5" s="74">
-        <v>115</v>
-      </c>
-      <c r="J5" s="74">
-        <v>301</v>
-      </c>
-      <c r="K5" s="79">
-        <v>120</v>
-      </c>
-      <c r="L5" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="74">
-        <v>-27.5</v>
-      </c>
-      <c r="N5" s="74">
-        <f>E7+12+12+14.25</f>
-        <v>69.25</v>
-      </c>
-      <c r="O5" s="79">
-        <v>1</v>
-      </c>
-      <c r="P5" s="32">
-        <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>72.712500000000006</v>
-      </c>
-      <c r="Q5" s="32">
-        <f>B12</f>
-        <v>-24.5</v>
-      </c>
-      <c r="R5" s="32"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="74">
-        <v>-36.67</v>
-      </c>
-      <c r="E6" s="74">
-        <f>E7+12</f>
-        <v>43</v>
-      </c>
-      <c r="F6" s="74">
-        <v>1</v>
-      </c>
-      <c r="G6" s="74">
-        <v>1.29</v>
-      </c>
-      <c r="H6" s="74">
-        <v>1.29</v>
-      </c>
-      <c r="I6" s="74">
-        <v>115</v>
-      </c>
-      <c r="J6" s="74">
-        <v>301</v>
-      </c>
-      <c r="K6" s="79">
-        <v>240</v>
-      </c>
-      <c r="L6" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="74">
-        <v>-24.5</v>
-      </c>
-      <c r="N6" s="74">
-        <f>E7+12+12+14.25</f>
-        <v>69.25</v>
-      </c>
-      <c r="O6" s="79">
-        <v>1</v>
-      </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="32">
-        <f>B12</f>
-        <v>-24.5</v>
-      </c>
-      <c r="R6" s="32"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="18">
-        <v>60</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="73">
-        <v>-33.75</v>
-      </c>
-      <c r="E7" s="73">
-        <v>31</v>
-      </c>
-      <c r="F7" s="73">
-        <v>1</v>
-      </c>
-      <c r="G7" s="73">
-        <v>1.29</v>
-      </c>
-      <c r="H7" s="73">
-        <v>1.29</v>
-      </c>
-      <c r="I7" s="73">
-        <v>115</v>
-      </c>
-      <c r="J7" s="73">
-        <v>301</v>
-      </c>
-      <c r="K7" s="80">
-        <v>0</v>
-      </c>
-      <c r="L7" s="74"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32">
-        <f>B13</f>
-        <v>24.5</v>
-      </c>
-      <c r="R7" s="32"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="18">
-        <v>100</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="74">
-        <v>-18.579999999999998</v>
-      </c>
-      <c r="E8" s="74">
-        <f>E10+12+12</f>
-        <v>55</v>
-      </c>
-      <c r="F8" s="74">
-        <v>1</v>
-      </c>
-      <c r="G8" s="74">
-        <v>1.29</v>
-      </c>
-      <c r="H8" s="74">
-        <v>1.29</v>
-      </c>
-      <c r="I8" s="74">
-        <v>115</v>
-      </c>
-      <c r="J8" s="74">
-        <v>316</v>
-      </c>
-      <c r="K8" s="79">
-        <v>240</v>
-      </c>
-      <c r="L8" s="74"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32">
-        <f>B13</f>
-        <v>24.5</v>
-      </c>
-      <c r="R8" s="32"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="17">
-        <v>50</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="74">
-        <v>-15.33</v>
-      </c>
-      <c r="E9" s="74">
-        <f>E10+12</f>
-        <v>43</v>
-      </c>
-      <c r="F9" s="74">
-        <v>1</v>
-      </c>
-      <c r="G9" s="74">
-        <v>1.29</v>
-      </c>
-      <c r="H9" s="74">
-        <v>1.29</v>
-      </c>
-      <c r="I9" s="74">
-        <v>115</v>
-      </c>
-      <c r="J9" s="74">
-        <v>316</v>
-      </c>
-      <c r="K9" s="79">
-        <v>0</v>
-      </c>
-      <c r="L9" s="74"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17">
-        <v>1</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="73">
-        <v>-18.25</v>
-      </c>
-      <c r="E10" s="73">
-        <v>31</v>
-      </c>
-      <c r="F10" s="73">
-        <v>1</v>
-      </c>
-      <c r="G10" s="73">
-        <v>1.29</v>
-      </c>
-      <c r="H10" s="73">
-        <v>1.29</v>
-      </c>
-      <c r="I10" s="73">
-        <v>115</v>
-      </c>
-      <c r="J10" s="73">
-        <v>316</v>
-      </c>
-      <c r="K10" s="80">
-        <v>120</v>
-      </c>
-      <c r="L10" s="74"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="18">
-        <v>3</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="74">
-        <v>-11.33</v>
-      </c>
-      <c r="E11" s="74">
-        <v>-5</v>
-      </c>
-      <c r="F11" s="74">
-        <v>1</v>
-      </c>
-      <c r="G11" s="74">
-        <v>0.68</v>
-      </c>
-      <c r="H11" s="74">
-        <v>0.68</v>
-      </c>
-      <c r="I11" s="74">
-        <v>34.5</v>
-      </c>
-      <c r="J11" s="74">
-        <v>37</v>
-      </c>
-      <c r="K11" s="79">
-        <v>240</v>
-      </c>
-      <c r="L11" s="74"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17">
-        <v>-24.5</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="74">
-        <v>-11</v>
-      </c>
-      <c r="E12" s="74">
-        <v>-5</v>
-      </c>
-      <c r="F12" s="74">
-        <v>1</v>
-      </c>
-      <c r="G12" s="74">
-        <v>0.68</v>
-      </c>
-      <c r="H12" s="74">
-        <v>0.68</v>
-      </c>
-      <c r="I12" s="74">
-        <v>34.5</v>
-      </c>
-      <c r="J12" s="74">
-        <v>37</v>
-      </c>
-      <c r="K12" s="79">
-        <v>120</v>
-      </c>
-      <c r="L12" s="74"/>
-    </row>
-    <row r="13" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A13" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="20">
-        <v>24.5</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="73">
-        <v>-10.67</v>
-      </c>
-      <c r="E13" s="73">
-        <v>-5</v>
-      </c>
-      <c r="F13" s="73">
-        <v>1</v>
-      </c>
-      <c r="G13" s="73">
-        <v>0.68</v>
-      </c>
-      <c r="H13" s="73">
-        <v>0.68</v>
-      </c>
-      <c r="I13" s="73">
-        <v>34.5</v>
-      </c>
-      <c r="J13" s="73">
-        <v>37</v>
-      </c>
-      <c r="K13" s="80">
-        <v>0</v>
-      </c>
-      <c r="L13" s="74"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="L14" s="74"/>
-    </row>
-    <row r="15" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="92"/>
-      <c r="L15" s="74"/>
-    </row>
-    <row r="16" spans="1:18">
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -15688,64 +16381,64 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
     <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" s="27" customFormat="1" ht="15">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+    <row r="2" spans="1:18" s="29" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
+    <row r="3" spans="1:18" ht="15.75">
       <c r="A3" s="83" t="s">
         <v>17</v>
       </c>
@@ -15772,7 +16465,7 @@
       </c>
       <c r="Q3" s="88"/>
     </row>
-    <row r="4" spans="1:17" ht="38.25">
+    <row r="4" spans="1:18" ht="38.25">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -15782,37 +16475,37 @@
       <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="25" t="s">
@@ -15824,106 +16517,112 @@
       <c r="Q4" s="31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="32"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="17">
-        <v>18</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="44">
-        <v>-37.5</v>
-      </c>
-      <c r="E5" s="44">
+        <v>14</v>
+      </c>
+      <c r="C5" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="44">
-        <v>1</v>
-      </c>
-      <c r="G5" s="44">
-        <v>0.52</v>
-      </c>
-      <c r="H5" s="44">
-        <v>0.52</v>
-      </c>
-      <c r="I5" s="44">
+      <c r="D5" s="74">
+        <v>-33.42</v>
+      </c>
+      <c r="E5" s="74">
+        <f>E7+12+12</f>
+        <v>55</v>
+      </c>
+      <c r="F5" s="74">
+        <v>1</v>
+      </c>
+      <c r="G5" s="74">
+        <v>1.29</v>
+      </c>
+      <c r="H5" s="74">
+        <v>1.29</v>
+      </c>
+      <c r="I5" s="74">
         <v>115</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="74">
         <v>301</v>
       </c>
-      <c r="K5" s="49">
-        <v>240</v>
-      </c>
-      <c r="L5" s="44" t="s">
+      <c r="K5" s="79">
+        <v>120</v>
+      </c>
+      <c r="L5" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="44">
-        <v>-31.25</v>
-      </c>
-      <c r="N5" s="44">
-        <v>47.5</v>
-      </c>
-      <c r="O5" s="49">
+      <c r="M5" s="74">
+        <v>-27.5</v>
+      </c>
+      <c r="N5" s="74">
+        <f>E7+12+12+14.25</f>
+        <v>69.25</v>
+      </c>
+      <c r="O5" s="79">
         <v>1</v>
       </c>
       <c r="P5" s="32">
         <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>49.875</v>
+        <v>72.712500000000006</v>
       </c>
       <c r="Q5" s="32">
         <f>B12</f>
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>-24.5</v>
+      </c>
+      <c r="R5" s="32"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="44">
-        <v>-25</v>
-      </c>
-      <c r="E6" s="44">
-        <v>33</v>
-      </c>
-      <c r="F6" s="44">
-        <v>1</v>
-      </c>
-      <c r="G6" s="44">
-        <v>0.52</v>
-      </c>
-      <c r="H6" s="44">
-        <v>0.52</v>
-      </c>
-      <c r="I6" s="44">
+        <v>77</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="74">
+        <v>-36.67</v>
+      </c>
+      <c r="E6" s="74">
+        <f>E7+12</f>
+        <v>43</v>
+      </c>
+      <c r="F6" s="74">
+        <v>1</v>
+      </c>
+      <c r="G6" s="74">
+        <v>1.29</v>
+      </c>
+      <c r="H6" s="74">
+        <v>1.29</v>
+      </c>
+      <c r="I6" s="74">
         <v>115</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="74">
         <v>301</v>
       </c>
-      <c r="K6" s="49">
-        <v>0</v>
-      </c>
-      <c r="L6" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="44">
-        <v>-18.75</v>
-      </c>
-      <c r="N6" s="44">
-        <v>47.5</v>
-      </c>
-      <c r="O6" s="49">
+      <c r="K6" s="79">
+        <v>240</v>
+      </c>
+      <c r="L6" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="74">
+        <v>-24.5</v>
+      </c>
+      <c r="N6" s="74">
+        <f>E7+12+12+14.25</f>
+        <v>69.25</v>
+      </c>
+      <c r="O6" s="79">
         <v>1</v>
       </c>
       <c r="P6" s="32">
@@ -15931,302 +16630,361 @@
       </c>
       <c r="Q6" s="32">
         <f>B12</f>
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>-24.5</v>
+      </c>
+      <c r="R6" s="32"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="18">
         <v>60</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="43">
-        <v>-12.5</v>
-      </c>
-      <c r="E7" s="43">
-        <v>33</v>
-      </c>
-      <c r="F7" s="43">
-        <v>1</v>
-      </c>
-      <c r="G7" s="43">
-        <v>0.52</v>
-      </c>
-      <c r="H7" s="43">
-        <v>0.52</v>
-      </c>
-      <c r="I7" s="43">
+      <c r="C7" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="73">
+        <v>-33.75</v>
+      </c>
+      <c r="E7" s="73">
+        <v>31</v>
+      </c>
+      <c r="F7" s="73">
+        <v>1</v>
+      </c>
+      <c r="G7" s="73">
+        <v>1.29</v>
+      </c>
+      <c r="H7" s="73">
+        <v>1.29</v>
+      </c>
+      <c r="I7" s="73">
         <v>115</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="73">
         <v>301</v>
       </c>
-      <c r="K7" s="50">
-        <v>120</v>
-      </c>
-      <c r="L7" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="44">
-        <v>30.75</v>
-      </c>
-      <c r="N7" s="44">
-        <v>40.75</v>
-      </c>
-      <c r="O7" s="49">
-        <v>1</v>
-      </c>
+      <c r="K7" s="80">
+        <v>0</v>
+      </c>
+      <c r="L7" s="74"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="32">
         <f>B13</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>24.5</v>
+      </c>
+      <c r="R7" s="32"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="18">
         <v>100</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="44">
-        <v>13.5</v>
-      </c>
-      <c r="E8" s="44">
+      <c r="C8" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="44">
-        <v>1</v>
-      </c>
-      <c r="G8" s="44">
-        <v>0.52</v>
-      </c>
-      <c r="H8" s="44">
-        <v>0.52</v>
-      </c>
-      <c r="I8" s="44">
+      <c r="D8" s="74">
+        <v>-18.579999999999998</v>
+      </c>
+      <c r="E8" s="74">
+        <f>E10+12+12</f>
+        <v>55</v>
+      </c>
+      <c r="F8" s="74">
+        <v>1</v>
+      </c>
+      <c r="G8" s="74">
+        <v>1.29</v>
+      </c>
+      <c r="H8" s="74">
+        <v>1.29</v>
+      </c>
+      <c r="I8" s="74">
         <v>115</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="74">
         <v>316</v>
       </c>
-      <c r="K8" s="49">
-        <v>120</v>
-      </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="49"/>
+      <c r="K8" s="79">
+        <v>240</v>
+      </c>
+      <c r="L8" s="74"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="32">
         <f>B13</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>24.5</v>
+      </c>
+      <c r="R8" s="32"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="17">
-        <v>100</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="44">
-        <v>25</v>
-      </c>
-      <c r="E9" s="44">
-        <v>25</v>
-      </c>
-      <c r="F9" s="44">
-        <v>1</v>
-      </c>
-      <c r="G9" s="44">
-        <v>0.52</v>
-      </c>
-      <c r="H9" s="44">
-        <v>0.52</v>
-      </c>
-      <c r="I9" s="44">
+        <v>50</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="74">
+        <v>-15.33</v>
+      </c>
+      <c r="E9" s="74">
+        <f>E10+12</f>
+        <v>43</v>
+      </c>
+      <c r="F9" s="74">
+        <v>1</v>
+      </c>
+      <c r="G9" s="74">
+        <v>1.29</v>
+      </c>
+      <c r="H9" s="74">
+        <v>1.29</v>
+      </c>
+      <c r="I9" s="74">
         <v>115</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="74">
         <v>316</v>
       </c>
-      <c r="K9" s="49">
-        <v>240</v>
-      </c>
-      <c r="L9" s="44"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="49"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="K9" s="79">
+        <v>0</v>
+      </c>
+      <c r="L9" s="74"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="43">
-        <v>36.5</v>
-      </c>
-      <c r="E10" s="43">
-        <v>25</v>
-      </c>
-      <c r="F10" s="43">
-        <v>1</v>
-      </c>
-      <c r="G10" s="43">
-        <v>0.52</v>
-      </c>
-      <c r="H10" s="43">
-        <v>0.52</v>
-      </c>
-      <c r="I10" s="43">
+      <c r="C10" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="73">
+        <v>-18.25</v>
+      </c>
+      <c r="E10" s="73">
+        <v>31</v>
+      </c>
+      <c r="F10" s="73">
+        <v>1</v>
+      </c>
+      <c r="G10" s="73">
+        <v>1.29</v>
+      </c>
+      <c r="H10" s="73">
+        <v>1.29</v>
+      </c>
+      <c r="I10" s="73">
         <v>115</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="73">
         <v>316</v>
       </c>
-      <c r="K10" s="50">
-        <v>0</v>
-      </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="49"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="K10" s="80">
+        <v>120</v>
+      </c>
+      <c r="L10" s="74"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="18">
         <v>3</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="O11" s="49"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="C11" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="74">
+        <v>-11.33</v>
+      </c>
+      <c r="E11" s="74">
+        <v>-5</v>
+      </c>
+      <c r="F11" s="74">
+        <v>1</v>
+      </c>
+      <c r="G11" s="74">
+        <v>0.68</v>
+      </c>
+      <c r="H11" s="74">
+        <v>0.68</v>
+      </c>
+      <c r="I11" s="74">
+        <v>34.5</v>
+      </c>
+      <c r="J11" s="74">
+        <v>37</v>
+      </c>
+      <c r="K11" s="79">
+        <v>240</v>
+      </c>
+      <c r="L11" s="74"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="17">
-        <v>-60</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="O12" s="49"/>
-    </row>
-    <row r="13" spans="1:17" ht="13.5" thickBot="1">
+        <v>-24.5</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="74">
+        <v>-11</v>
+      </c>
+      <c r="E12" s="74">
+        <v>-5</v>
+      </c>
+      <c r="F12" s="74">
+        <v>1</v>
+      </c>
+      <c r="G12" s="74">
+        <v>0.68</v>
+      </c>
+      <c r="H12" s="74">
+        <v>0.68</v>
+      </c>
+      <c r="I12" s="74">
+        <v>34.5</v>
+      </c>
+      <c r="J12" s="74">
+        <v>37</v>
+      </c>
+      <c r="K12" s="79">
+        <v>120</v>
+      </c>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="1:18" ht="13.5" thickBot="1">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="20">
-        <v>60</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="9"/>
-      <c r="O13" s="49"/>
-    </row>
-    <row r="14" spans="1:17">
+        <v>24.5</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="73">
+        <v>-10.67</v>
+      </c>
+      <c r="E13" s="73">
+        <v>-5</v>
+      </c>
+      <c r="F13" s="73">
+        <v>1</v>
+      </c>
+      <c r="G13" s="73">
+        <v>0.68</v>
+      </c>
+      <c r="H13" s="73">
+        <v>0.68</v>
+      </c>
+      <c r="I13" s="73">
+        <v>34.5</v>
+      </c>
+      <c r="J13" s="73">
+        <v>37</v>
+      </c>
+      <c r="K13" s="80">
+        <v>0</v>
+      </c>
+      <c r="L13" s="74"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="89" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="90"/>
-      <c r="L14" s="9"/>
-      <c r="O14" s="49"/>
-    </row>
-    <row r="15" spans="1:17" ht="12.75" customHeight="1">
+      <c r="L14" s="74"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.75" customHeight="1">
       <c r="A15" s="91"/>
       <c r="B15" s="92"/>
-      <c r="L15" s="9"/>
-      <c r="O15" s="49"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="C16" s="12"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="9"/>
+      <c r="L15" s="74"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="C16" s="77"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="74"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="L17" s="9"/>
+      <c r="L17" s="74"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="L18" s="9"/>
+      <c r="L18" s="74"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="12"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="9"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="74"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="L20" s="9"/>
-      <c r="N20"/>
+      <c r="L20" s="74"/>
+      <c r="N20" s="65"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="N21"/>
+      <c r="N21" s="65"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="12"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="15"/>
-      <c r="N22"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="80"/>
+      <c r="N22" s="65"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="N23"/>
+      <c r="N23" s="65"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="N24"/>
+      <c r="N24" s="65"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="12"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="15"/>
-      <c r="N25"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="80"/>
+      <c r="N25" s="65"/>
     </row>
     <row r="26" spans="3:14">
       <c r="C26" s="33"/>
@@ -16238,8 +16996,8 @@
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
-      <c r="L26" s="11"/>
-      <c r="N26"/>
+      <c r="L26" s="76"/>
+      <c r="N26" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/working_files/practice_xcs.xlsx
+++ b/working_files/practice_xcs.xlsx
@@ -947,7 +947,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1125,11 +1124,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="95013888"/>
-        <c:axId val="95024256"/>
+        <c:axId val="147516416"/>
+        <c:axId val="147400192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95013888"/>
+        <c:axId val="147516416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,16 +1149,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95024256"/>
+        <c:crossAx val="147400192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95024256"/>
+        <c:axId val="147400192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,25 +1179,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95013888"/>
+        <c:crossAx val="147516416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1221,7 +1217,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1447,11 +1442,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="96171520"/>
-        <c:axId val="96173440"/>
+        <c:axId val="155105536"/>
+        <c:axId val="155115904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96171520"/>
+        <c:axId val="155105536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,16 +1467,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96173440"/>
+        <c:crossAx val="155115904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96173440"/>
+        <c:axId val="155115904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,25 +1497,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96171520"/>
+        <c:crossAx val="155105536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1762,11 +1754,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="100924800"/>
-        <c:axId val="100934784"/>
+        <c:axId val="155712512"/>
+        <c:axId val="155731072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100924800"/>
+        <c:axId val="155712512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,12 +1782,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100934784"/>
+        <c:crossAx val="155731072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100934784"/>
+        <c:axId val="155731072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1812,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100924800"/>
+        <c:crossAx val="155712512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1833,7 +1825,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2134,11 +2126,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="100969472"/>
-        <c:axId val="100979840"/>
+        <c:axId val="155803648"/>
+        <c:axId val="155805568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100969472"/>
+        <c:axId val="155803648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,12 +2154,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100979840"/>
+        <c:crossAx val="155805568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100979840"/>
+        <c:axId val="155805568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,7 +2184,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100969472"/>
+        <c:crossAx val="155803648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2205,7 +2197,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2554,11 +2546,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="101016320"/>
-        <c:axId val="101018240"/>
+        <c:axId val="155845376"/>
+        <c:axId val="155847296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101016320"/>
+        <c:axId val="155845376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,12 +2574,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101018240"/>
+        <c:crossAx val="155847296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101018240"/>
+        <c:axId val="155847296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2612,7 +2604,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101016320"/>
+        <c:crossAx val="155845376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2625,7 +2617,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2842,11 +2834,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="3044864"/>
-        <c:axId val="3046784"/>
+        <c:axId val="155870720"/>
+        <c:axId val="155872640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3044864"/>
+        <c:axId val="155870720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,12 +2862,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="3046784"/>
+        <c:crossAx val="155872640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3046784"/>
+        <c:axId val="155872640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,7 +2892,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="3044864"/>
+        <c:crossAx val="155870720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2913,7 +2905,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3130,11 +3122,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="65509632"/>
-        <c:axId val="65524096"/>
+        <c:axId val="156424448"/>
+        <c:axId val="156238208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65509632"/>
+        <c:axId val="156424448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3158,12 +3150,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65524096"/>
+        <c:crossAx val="156238208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65524096"/>
+        <c:axId val="156238208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3188,7 +3180,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65509632"/>
+        <c:crossAx val="156424448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3201,7 +3193,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3418,11 +3410,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="124999936"/>
-        <c:axId val="125018496"/>
+        <c:axId val="156302336"/>
+        <c:axId val="155391104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124999936"/>
+        <c:axId val="156302336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,12 +3438,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125018496"/>
+        <c:crossAx val="155391104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125018496"/>
+        <c:axId val="155391104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3476,7 +3468,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124999936"/>
+        <c:crossAx val="156302336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3489,7 +3481,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3706,11 +3698,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="125074432"/>
-        <c:axId val="125080704"/>
+        <c:axId val="156615040"/>
+        <c:axId val="156616960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125074432"/>
+        <c:axId val="156615040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3734,12 +3726,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125080704"/>
+        <c:crossAx val="156616960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125080704"/>
+        <c:axId val="156616960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,7 +3756,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125074432"/>
+        <c:crossAx val="156615040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3777,7 +3769,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3982,11 +3974,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="95080448"/>
-        <c:axId val="95082368"/>
+        <c:axId val="148178048"/>
+        <c:axId val="148179968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95080448"/>
+        <c:axId val="148178048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4010,12 +4002,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95082368"/>
+        <c:crossAx val="148179968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95082368"/>
+        <c:axId val="148179968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4040,7 +4032,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95080448"/>
+        <c:crossAx val="148178048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4053,7 +4045,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4318,11 +4310,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="95167232"/>
-        <c:axId val="95169152"/>
+        <c:axId val="153707648"/>
+        <c:axId val="153709568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95167232"/>
+        <c:axId val="153707648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4346,12 +4338,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95169152"/>
+        <c:crossAx val="153709568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95169152"/>
+        <c:axId val="153709568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4376,7 +4368,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95167232"/>
+        <c:crossAx val="153707648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4389,7 +4381,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4654,11 +4646,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="95217152"/>
-        <c:axId val="95219072"/>
+        <c:axId val="153785856"/>
+        <c:axId val="153787776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95217152"/>
+        <c:axId val="153785856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4682,12 +4674,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95219072"/>
+        <c:crossAx val="153787776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95219072"/>
+        <c:axId val="153787776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4712,7 +4704,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95217152"/>
+        <c:crossAx val="153785856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4725,7 +4717,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4990,11 +4982,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="95578368"/>
-        <c:axId val="95592832"/>
+        <c:axId val="154921216"/>
+        <c:axId val="153616768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95578368"/>
+        <c:axId val="154921216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5018,12 +5010,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95592832"/>
+        <c:crossAx val="153616768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95592832"/>
+        <c:axId val="153616768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,7 +5040,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95578368"/>
+        <c:crossAx val="154921216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5061,7 +5053,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5083,7 +5075,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5321,11 +5312,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="95665152"/>
-        <c:axId val="95671424"/>
+        <c:axId val="153672704"/>
+        <c:axId val="153678976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95665152"/>
+        <c:axId val="153672704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5346,16 +5337,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95671424"/>
+        <c:crossAx val="153678976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95671424"/>
+        <c:axId val="153678976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5377,25 +5367,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95665152"/>
+        <c:crossAx val="153672704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5550,7 +5538,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>-5.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5598,7 +5586,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>-5.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5607,11 +5595,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="140534144"/>
-        <c:axId val="140536064"/>
+        <c:axId val="155468544"/>
+        <c:axId val="155470464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140534144"/>
+        <c:axId val="155468544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5636,12 +5624,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140536064"/>
+        <c:crossAx val="155470464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140536064"/>
+        <c:axId val="155470464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5667,7 +5655,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140534144"/>
+        <c:crossAx val="155468544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5681,7 +5669,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5940,11 +5928,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="95813632"/>
-        <c:axId val="95815552"/>
+        <c:axId val="155546368"/>
+        <c:axId val="155548288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95813632"/>
+        <c:axId val="155546368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5968,12 +5956,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95815552"/>
+        <c:crossAx val="155548288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95815552"/>
+        <c:axId val="155548288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5998,7 +5986,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95813632"/>
+        <c:crossAx val="155546368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6011,7 +5999,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6270,11 +6258,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="96117504"/>
-        <c:axId val="96119424"/>
+        <c:axId val="155633152"/>
+        <c:axId val="155635072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96117504"/>
+        <c:axId val="155633152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6298,12 +6286,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96119424"/>
+        <c:crossAx val="155635072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96119424"/>
+        <c:axId val="155635072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6328,7 +6316,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96117504"/>
+        <c:crossAx val="155633152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6341,7 +6329,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.7000000000000024" r="0.7000000000000024" t="0.75000000000000344" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000251" r="0.70000000000000251" t="0.75000000000000355" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15317,7 +15305,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -15708,10 +15696,10 @@
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
       <c r="N20" s="65"/>
     </row>
     <row r="21" spans="3:14">
+      <c r="K21" s="80"/>
       <c r="N21" s="65"/>
     </row>
     <row r="22" spans="3:14">

--- a/working_files/practice_xcs.xlsx
+++ b/working_files/practice_xcs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr backupFile="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="16"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="27" r:id="rId1"/>
@@ -800,6 +800,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,16 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -955,7 +955,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1133,11 +1132,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="121704832"/>
-        <c:axId val="72074368"/>
+        <c:axId val="129367040"/>
+        <c:axId val="128464384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121704832"/>
+        <c:axId val="129367040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,16 +1157,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72074368"/>
+        <c:crossAx val="128464384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72074368"/>
+        <c:axId val="128464384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,25 +1187,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121704832"/>
+        <c:crossAx val="129367040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1229,7 +1225,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1455,11 +1450,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84395904"/>
-        <c:axId val="84410368"/>
+        <c:axId val="137476352"/>
+        <c:axId val="137486720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84395904"/>
+        <c:axId val="137476352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,16 +1475,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84410368"/>
+        <c:crossAx val="137486720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84410368"/>
+        <c:axId val="137486720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,25 +1505,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84395904"/>
+        <c:crossAx val="137476352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1551,7 +1543,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1771,11 +1762,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85342848"/>
-        <c:axId val="85357312"/>
+        <c:axId val="137821184"/>
+        <c:axId val="137839744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85342848"/>
+        <c:axId val="137821184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,16 +1787,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85357312"/>
+        <c:crossAx val="137839744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85357312"/>
+        <c:axId val="137839744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,25 +1817,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85342848"/>
+        <c:crossAx val="137821184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1867,7 +1855,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2147,11 +2134,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85392768"/>
-        <c:axId val="86017536"/>
+        <c:axId val="137912320"/>
+        <c:axId val="137914240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85392768"/>
+        <c:axId val="137912320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,16 +2159,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86017536"/>
+        <c:crossAx val="137914240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86017536"/>
+        <c:axId val="137914240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,25 +2189,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85392768"/>
+        <c:crossAx val="137912320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2243,7 +2227,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2571,11 +2554,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84517248"/>
-        <c:axId val="84519168"/>
+        <c:axId val="138343168"/>
+        <c:axId val="138345088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84517248"/>
+        <c:axId val="138343168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,16 +2579,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84519168"/>
+        <c:crossAx val="138345088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84519168"/>
+        <c:axId val="138345088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2627,25 +2609,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84517248"/>
+        <c:crossAx val="138343168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2667,7 +2647,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2863,11 +2842,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86742144"/>
-        <c:axId val="86744064"/>
+        <c:axId val="137979392"/>
+        <c:axId val="137981312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86742144"/>
+        <c:axId val="137979392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2888,16 +2867,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86744064"/>
+        <c:crossAx val="137981312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86744064"/>
+        <c:axId val="137981312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2919,25 +2897,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86742144"/>
+        <c:crossAx val="137979392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2959,7 +2935,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3155,11 +3130,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87250816"/>
-        <c:axId val="87257088"/>
+        <c:axId val="138410240"/>
+        <c:axId val="137507200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87250816"/>
+        <c:axId val="138410240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3180,16 +3155,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87257088"/>
+        <c:crossAx val="137507200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87257088"/>
+        <c:axId val="137507200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,25 +3185,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87250816"/>
+        <c:crossAx val="138410240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3251,7 +3223,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3447,11 +3418,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87366272"/>
-        <c:axId val="87380736"/>
+        <c:axId val="138357760"/>
+        <c:axId val="138552448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87366272"/>
+        <c:axId val="138357760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3472,16 +3443,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87380736"/>
+        <c:crossAx val="138552448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87380736"/>
+        <c:axId val="138552448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3503,25 +3473,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87366272"/>
+        <c:crossAx val="138357760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3739,11 +3707,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87138304"/>
-        <c:axId val="87140224"/>
+        <c:axId val="138723712"/>
+        <c:axId val="138725632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87138304"/>
+        <c:axId val="138723712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,12 +3736,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87140224"/>
+        <c:crossAx val="138725632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87140224"/>
+        <c:axId val="138725632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3799,7 +3767,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87138304"/>
+        <c:crossAx val="138723712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3813,7 +3781,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3835,7 +3803,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4019,11 +3986,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72138752"/>
-        <c:axId val="72140672"/>
+        <c:axId val="129372544"/>
+        <c:axId val="129374464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72138752"/>
+        <c:axId val="129372544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4044,16 +4011,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72140672"/>
+        <c:crossAx val="129374464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72140672"/>
+        <c:axId val="129374464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,25 +4041,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72138752"/>
+        <c:crossAx val="129372544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4115,7 +4079,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4359,11 +4322,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78226560"/>
-        <c:axId val="78228480"/>
+        <c:axId val="130835584"/>
+        <c:axId val="130837504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78226560"/>
+        <c:axId val="130835584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4384,16 +4347,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78228480"/>
+        <c:crossAx val="130837504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78228480"/>
+        <c:axId val="130837504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4415,25 +4377,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78226560"/>
+        <c:crossAx val="130835584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4455,7 +4415,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4699,11 +4658,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82728832"/>
-        <c:axId val="82743296"/>
+        <c:axId val="130913792"/>
+        <c:axId val="130915712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82728832"/>
+        <c:axId val="130913792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4724,16 +4683,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82743296"/>
+        <c:crossAx val="130915712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82743296"/>
+        <c:axId val="130915712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4755,25 +4713,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82728832"/>
+        <c:crossAx val="130913792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4795,7 +4751,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5039,11 +4994,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="83298176"/>
-        <c:axId val="83308544"/>
+        <c:axId val="131000576"/>
+        <c:axId val="129565056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83298176"/>
+        <c:axId val="131000576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5064,16 +5019,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83308544"/>
+        <c:crossAx val="129565056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83308544"/>
+        <c:axId val="129565056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5095,25 +5049,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83298176"/>
+        <c:crossAx val="131000576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5135,7 +5087,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5373,11 +5324,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="83356288"/>
-        <c:axId val="83370752"/>
+        <c:axId val="129620992"/>
+        <c:axId val="129627264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83356288"/>
+        <c:axId val="129620992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5398,16 +5349,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83370752"/>
+        <c:crossAx val="129627264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83370752"/>
+        <c:axId val="129627264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5429,25 +5379,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83356288"/>
+        <c:crossAx val="129620992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5659,11 +5607,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="83468672"/>
-        <c:axId val="83470592"/>
+        <c:axId val="137581312"/>
+        <c:axId val="137583232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83468672"/>
+        <c:axId val="137581312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5688,12 +5636,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83470592"/>
+        <c:crossAx val="137583232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83470592"/>
+        <c:axId val="137583232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5719,7 +5667,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83468672"/>
+        <c:crossAx val="137581312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5733,7 +5681,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000262" r="0.70000000000000262" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5755,7 +5703,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5993,11 +5940,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84169088"/>
-        <c:axId val="84171008"/>
+        <c:axId val="137663232"/>
+        <c:axId val="137665152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84169088"/>
+        <c:axId val="137663232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6018,16 +5965,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84171008"/>
+        <c:crossAx val="137665152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84171008"/>
+        <c:axId val="137665152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6049,25 +5995,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84169088"/>
+        <c:crossAx val="137663232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6089,7 +6033,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6327,11 +6270,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84276352"/>
-        <c:axId val="84278272"/>
+        <c:axId val="137745920"/>
+        <c:axId val="137747840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84276352"/>
+        <c:axId val="137745920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6352,16 +6295,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84278272"/>
+        <c:crossAx val="137747840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84278272"/>
+        <c:axId val="137747840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6383,25 +6325,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84276352"/>
+        <c:crossAx val="137745920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7337,9 +7277,9 @@
       <c r="L1" s="63"/>
       <c r="M1" s="63"/>
       <c r="N1" s="63"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="65"/>
@@ -7356,38 +7296,38 @@
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -7609,15 +7549,15 @@
       <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:19">
@@ -7767,9 +7707,9 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="3"/>
@@ -7786,38 +7726,38 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -8213,15 +8153,15 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:19">
@@ -8371,9 +8311,9 @@
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="36"/>
@@ -8390,38 +8330,38 @@
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -8800,15 +8740,15 @@
       <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:19">
@@ -8957,9 +8897,9 @@
       <c r="L1" s="63"/>
       <c r="M1" s="63"/>
       <c r="N1" s="63"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="65"/>
@@ -8976,38 +8916,38 @@
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -9520,10 +9460,10 @@
       <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="73" t="s">
         <v>51</v>
       </c>
@@ -9554,8 +9494,8 @@
       <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="73" t="s">
         <v>52</v>
       </c>
@@ -9741,9 +9681,9 @@
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="36"/>
@@ -9760,38 +9700,38 @@
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -10338,10 +10278,10 @@
       <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="58" t="s">
         <v>51</v>
       </c>
@@ -10372,8 +10312,8 @@
       <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="58" t="s">
         <v>52</v>
       </c>
@@ -10711,9 +10651,9 @@
       <c r="L1" s="63"/>
       <c r="M1" s="63"/>
       <c r="N1" s="63"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="65"/>
@@ -10730,38 +10670,38 @@
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -11045,15 +10985,15 @@
       <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:19">
@@ -11202,9 +11142,9 @@
       <c r="L1" s="63"/>
       <c r="M1" s="63"/>
       <c r="N1" s="63"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="65"/>
@@ -11221,38 +11161,38 @@
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -11536,15 +11476,15 @@
       <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:19">
@@ -11693,9 +11633,9 @@
       <c r="L1" s="63"/>
       <c r="M1" s="63"/>
       <c r="N1" s="63"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="65"/>
@@ -11712,38 +11652,38 @@
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -12027,15 +11967,15 @@
       <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:19">
@@ -12148,7 +12088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -12184,9 +12124,9 @@
       <c r="L1" s="63"/>
       <c r="M1" s="63"/>
       <c r="N1" s="63"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="65"/>
@@ -12203,38 +12143,38 @@
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -12518,15 +12458,15 @@
       <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:19">
@@ -12675,9 +12615,9 @@
       <c r="L1" s="63"/>
       <c r="M1" s="63"/>
       <c r="N1" s="63"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="65"/>
@@ -12694,38 +12634,38 @@
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -12964,15 +12904,15 @@
       <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:19">
@@ -13122,9 +13062,9 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="3"/>
@@ -13141,38 +13081,38 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -13634,15 +13574,15 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:19">
@@ -13792,9 +13732,9 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="3"/>
@@ -13811,38 +13751,38 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -14304,15 +14244,15 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:19">
@@ -14462,9 +14402,9 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="3"/>
@@ -14481,38 +14421,38 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -14974,15 +14914,15 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:19">
@@ -15132,9 +15072,9 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="3"/>
@@ -15151,38 +15091,38 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -15627,15 +15567,15 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:19">
@@ -15748,8 +15688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -15784,9 +15724,9 @@
       <c r="L1" s="63"/>
       <c r="M1" s="63"/>
       <c r="N1" s="63"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="65"/>
@@ -15803,38 +15743,38 @@
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -16101,15 +16041,15 @@
       <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:19">
@@ -16229,9 +16169,9 @@
       <c r="L1" s="63"/>
       <c r="M1" s="63"/>
       <c r="N1" s="63"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="65"/>
@@ -16248,38 +16188,38 @@
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -16730,15 +16670,15 @@
       <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:19">
@@ -16887,9 +16827,9 @@
       <c r="L1" s="63"/>
       <c r="M1" s="63"/>
       <c r="N1" s="63"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:20" s="27" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="65"/>
@@ -16906,38 +16846,38 @@
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:20" ht="15.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="85" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:20" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -17400,15 +17340,15 @@
       <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:20">
